--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_12_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_12_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>813657.8970000634</v>
+        <v>811466.0198468897</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3165573.335774306</v>
+        <v>3165573.335774304</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5876366.054632858</v>
+        <v>5876366.054632859</v>
       </c>
     </row>
     <row r="11">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>41.31500304752735</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="G4" t="n">
         <v>41.31500304752735</v>
@@ -837,7 +837,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -974,65 +974,65 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="D6" t="n">
+      <c r="T6" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="U6" t="n">
         <v>36.39025468426209</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,76 +1053,76 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>36.39025468426208</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="C7" t="n">
+      <c r="W7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="D7" t="n">
-        <v>15.18661160258025</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>21.20364308168184</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
       <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1214,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>36.39025468426208</v>
@@ -1296,23 +1296,23 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="G10" t="n">
-        <v>15.18661160258025</v>
-      </c>
-      <c r="H10" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>41.31500304752735</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>100.1611984751266</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>158.3631002723149</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>395.9513258013682</v>
       </c>
       <c r="H11" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T12" t="n">
         <v>125.7874466415632</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317973</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1609,7 +1609,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1621,10 +1621,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>372.1253505675372</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>235.8832345450709</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T15" t="n">
         <v>125.7874466415632</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317973</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1782,7 +1782,7 @@
         <v>163.2927798113889</v>
       </c>
       <c r="H16" t="n">
-        <v>132.7900107487582</v>
+        <v>132.7900107487581</v>
       </c>
       <c r="I16" t="n">
         <v>68.44914407541627</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1855,13 +1855,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H17" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>50.17164010427808</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>313.6888632871001</v>
       </c>
       <c r="Y17" t="n">
-        <v>62.41980619857831</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T18" t="n">
         <v>125.7874466415632</v>
@@ -2019,7 +2019,7 @@
         <v>163.2927798113889</v>
       </c>
       <c r="H19" t="n">
-        <v>132.7900107487582</v>
+        <v>132.7900107487581</v>
       </c>
       <c r="I19" t="n">
         <v>68.44914407541627</v>
@@ -2086,19 +2086,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>307.6085613377876</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>372.125350567537</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T21" t="n">
         <v>125.7874466415632</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T24" t="n">
         <v>125.7874466415632</v>
@@ -2569,7 +2569,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.9513258013687</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H26" t="n">
         <v>271.5679831933489</v>
@@ -2611,7 +2611,7 @@
         <v>211.5956667680352</v>
       </c>
       <c r="U26" t="n">
-        <v>256.5154774752252</v>
+        <v>256.5154774752256</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T27" t="n">
         <v>125.7874466415632</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>50.17164010427808</v>
+        <v>50.17164010427837</v>
       </c>
       <c r="T29" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U29" t="n">
-        <v>256.5154774752252</v>
+        <v>256.5154774752247</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T30" t="n">
         <v>125.7874466415632</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>50.17164010427808</v>
+        <v>50.17164010427747</v>
       </c>
       <c r="T32" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U32" t="n">
-        <v>256.5154774752252</v>
+        <v>256.5154774752256</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T33" t="n">
         <v>125.7874466415632</v>
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>151.9486003641521</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.9513258013682</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>108.8093040361632</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T36" t="n">
         <v>125.7874466415632</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3511,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>399.2105410732041</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>395.9513258013682</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>380.7617591911314</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T39" t="n">
         <v>125.7874466415632</v>
@@ -3681,7 +3681,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I40" t="n">
-        <v>68.44914407541627</v>
+        <v>68.44914407541629</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>327.0274780895488</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>125.8633513854616</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>211.5956667680352</v>
@@ -3799,16 +3799,16 @@
         <v>256.5154774752252</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T42" t="n">
         <v>125.7874466415632</v>
@@ -3912,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.2927798113888</v>
+        <v>163.2927798113889</v>
       </c>
       <c r="H43" t="n">
-        <v>132.7900107487581</v>
+        <v>132.7900107487582</v>
       </c>
       <c r="I43" t="n">
         <v>68.44914407541627</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>397.1162590456477</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>395.9513258013682</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U44" t="n">
         <v>256.5154774752252</v>
@@ -4042,10 +4042,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>105.7911665482669</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>48.58404546828454</v>
+        <v>48.58404546828455</v>
       </c>
       <c r="T45" t="n">
         <v>125.7874466415632</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122.8380161568153</v>
+        <v>122.8380161568152</v>
       </c>
       <c r="C2" t="n">
-        <v>88.73594738064261</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D2" t="n">
         <v>56.86656659549119</v>
       </c>
       <c r="E2" t="n">
-        <v>27.13222579419041</v>
+        <v>27.13222579419042</v>
       </c>
       <c r="F2" t="n">
-        <v>3.305200243802204</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G2" t="n">
         <v>3.305200243802188</v>
@@ -4333,22 +4333,22 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K2" t="n">
-        <v>85.10890627790634</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="L2" t="n">
-        <v>124.3581591730573</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M2" t="n">
-        <v>124.3581591730573</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N2" t="n">
-        <v>124.3581591730573</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="O2" t="n">
-        <v>124.3581591730573</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P2" t="n">
-        <v>124.3581591730573</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q2" t="n">
         <v>124.3581591730573</v>
@@ -4369,7 +4369,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W2" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X2" t="n">
         <v>149.3429022612615</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>143.8421908954813</v>
+      </c>
+      <c r="C4" t="n">
+        <v>143.8421908954813</v>
+      </c>
+      <c r="D4" t="n">
+        <v>143.8421908954813</v>
+      </c>
+      <c r="E4" t="n">
+        <v>143.8421908954813</v>
+      </c>
+      <c r="F4" t="n">
         <v>128.5021791757032</v>
       </c>
-      <c r="C4" t="n">
-        <v>128.5021791757032</v>
-      </c>
-      <c r="D4" t="n">
-        <v>128.5021791757032</v>
-      </c>
-      <c r="E4" t="n">
-        <v>128.5021791757032</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>86.76985286506957</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>45.03752655443588</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.305200243802188</v>
       </c>
       <c r="I4" t="n">
         <v>3.305200243802188</v>
@@ -4491,19 +4491,19 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K4" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L4" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M4" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N4" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O4" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P4" t="n">
         <v>124.3581591730573</v>
@@ -4512,28 +4512,28 @@
         <v>165.2600121901094</v>
       </c>
       <c r="R4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S4" t="n">
-        <v>128.5021791757032</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T4" t="n">
-        <v>128.5021791757032</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U4" t="n">
-        <v>128.5021791757032</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="V4" t="n">
-        <v>128.5021791757032</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="W4" t="n">
-        <v>128.5021791757032</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="X4" t="n">
-        <v>128.5021791757032</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="Y4" t="n">
-        <v>128.5021791757032</v>
+        <v>143.8421908954813</v>
       </c>
     </row>
     <row r="5">
@@ -4558,10 +4558,10 @@
         <v>3.305200243802236</v>
       </c>
       <c r="G5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802236</v>
       </c>
       <c r="H5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802236</v>
       </c>
       <c r="I5" t="n">
         <v>3.305200243802188</v>
@@ -4576,16 +4576,16 @@
         <v>44.20705326085427</v>
       </c>
       <c r="M5" t="n">
-        <v>85.10890627790634</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="N5" t="n">
-        <v>126.0107592949584</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="O5" t="n">
-        <v>165.2600121901094</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P5" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q5" t="n">
         <v>165.2600121901094</v>
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81.79535956884203</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="C6" t="n">
-        <v>40.06303325820834</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D6" t="n">
         <v>3.305200243802188</v>
@@ -4649,49 +4649,49 @@
         <v>70.27072642131186</v>
       </c>
       <c r="K6" t="n">
-        <v>111.1725794383639</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="L6" t="n">
-        <v>152.074432455416</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M6" t="n">
-        <v>165.2600121901094</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N6" t="n">
-        <v>165.2600121901094</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="O6" t="n">
-        <v>165.2600121901094</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P6" t="n">
-        <v>165.2600121901094</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q6" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R6" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="S6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T6" t="n">
-        <v>165.2600121901094</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="U6" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="V6" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="W6" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="X6" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="Y6" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
     </row>
     <row r="7">
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.37753827421391</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C7" t="n">
-        <v>18.64521196358022</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D7" t="n">
         <v>3.305200243802188</v>
@@ -4728,16 +4728,16 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K7" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L7" t="n">
-        <v>44.20705326085427</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="M7" t="n">
-        <v>44.20705326085427</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="N7" t="n">
-        <v>85.10890627790634</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="O7" t="n">
         <v>126.0107592949584</v>
@@ -4749,28 +4749,28 @@
         <v>165.2600121901094</v>
       </c>
       <c r="R7" t="n">
-        <v>143.8421908954813</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S7" t="n">
-        <v>143.8421908954813</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T7" t="n">
-        <v>143.8421908954813</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="U7" t="n">
-        <v>143.8421908954813</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V7" t="n">
-        <v>143.8421908954813</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="W7" t="n">
-        <v>143.8421908954813</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="X7" t="n">
-        <v>102.1098645848476</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="Y7" t="n">
-        <v>102.1098645848476</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="8">
@@ -4804,22 +4804,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J8" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K8" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L8" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="M8" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="N8" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="O8" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="P8" t="n">
         <v>83.45630615600527</v>
@@ -4862,10 +4862,10 @@
         <v>165.2600121901094</v>
       </c>
       <c r="C9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="D9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="E9" t="n">
         <v>123.5276858794757</v>
@@ -4880,31 +4880,31 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J9" t="n">
-        <v>44.20705326085427</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="K9" t="n">
-        <v>85.10890627790634</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="L9" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="M9" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="N9" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="O9" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="P9" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="Q9" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="M9" t="n">
-        <v>124.3581591730573</v>
-      </c>
-      <c r="N9" t="n">
-        <v>124.3581591730573</v>
-      </c>
-      <c r="O9" t="n">
-        <v>124.3581591730573</v>
-      </c>
-      <c r="P9" t="n">
-        <v>124.3581591730573</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="R9" t="n">
         <v>165.2600121901094</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.1098645848476</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="C10" t="n">
-        <v>102.1098645848476</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="D10" t="n">
-        <v>102.1098645848476</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E10" t="n">
-        <v>102.1098645848476</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F10" t="n">
-        <v>60.37753827421391</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G10" t="n">
         <v>45.03752655443588</v>
       </c>
       <c r="H10" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="I10" t="n">
         <v>3.305200243802188</v>
@@ -4968,46 +4968,46 @@
         <v>85.10890627790634</v>
       </c>
       <c r="L10" t="n">
-        <v>124.3581591730573</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="M10" t="n">
-        <v>124.3581591730573</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="N10" t="n">
-        <v>124.3581591730573</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="O10" t="n">
-        <v>124.3581591730573</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="P10" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>143.8421908954813</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S10" t="n">
-        <v>143.8421908954813</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T10" t="n">
-        <v>143.8421908954813</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U10" t="n">
-        <v>102.1098645848476</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V10" t="n">
-        <v>102.1098645848476</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="W10" t="n">
-        <v>102.1098645848476</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="X10" t="n">
-        <v>102.1098645848476</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="Y10" t="n">
-        <v>102.1098645848476</v>
+        <v>128.5021791757032</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1755.992632681299</v>
+        <v>1767.90363905015</v>
       </c>
       <c r="C11" t="n">
-        <v>1755.992632681299</v>
+        <v>1329.761166233574</v>
       </c>
       <c r="D11" t="n">
-        <v>1596.029905133506</v>
+        <v>893.8513814080183</v>
       </c>
       <c r="E11" t="n">
-        <v>1162.255160291802</v>
+        <v>460.0766365663134</v>
       </c>
       <c r="F11" t="n">
-        <v>734.3877307010093</v>
+        <v>460.0766365663134</v>
       </c>
       <c r="G11" t="n">
-        <v>334.4368965582132</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="H11" t="n">
         <v>60.12580242351726</v>
@@ -5041,52 +5041,52 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J11" t="n">
-        <v>234.7606604020848</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K11" t="n">
-        <v>609.2473109486227</v>
+        <v>886.0120835572819</v>
       </c>
       <c r="L11" t="n">
-        <v>833.0502213253063</v>
+        <v>1109.814993933966</v>
       </c>
       <c r="M11" t="n">
-        <v>1577.107026316332</v>
+        <v>1358.838853932253</v>
       </c>
       <c r="N11" t="n">
-        <v>2321.163831307358</v>
+        <v>1611.892180331744</v>
       </c>
       <c r="O11" t="n">
-        <v>2560.114911678883</v>
+        <v>1850.843260703269</v>
       </c>
       <c r="P11" t="n">
-        <v>2764.054130447352</v>
+        <v>2594.900065694295</v>
       </c>
       <c r="Q11" t="n">
-        <v>2917.20399048531</v>
+        <v>2748.049925732253</v>
       </c>
       <c r="R11" t="n">
         <v>3006.290121175863</v>
       </c>
       <c r="S11" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T11" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="U11" t="n">
-        <v>3006.290121175863</v>
+        <v>2696.505153923839</v>
       </c>
       <c r="V11" t="n">
-        <v>3006.290121175863</v>
+        <v>2696.505153923839</v>
       </c>
       <c r="W11" t="n">
-        <v>2601.434666586896</v>
+        <v>2696.505153923839</v>
       </c>
       <c r="X11" t="n">
-        <v>2182.292203166207</v>
+        <v>2277.36269050315</v>
       </c>
       <c r="Y11" t="n">
-        <v>2182.292203166207</v>
+        <v>1869.076566802803</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I12" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J12" t="n">
-        <v>157.9417523880325</v>
+        <v>434.0744497294285</v>
       </c>
       <c r="K12" t="n">
-        <v>280.472113037332</v>
+        <v>556.6048103787278</v>
       </c>
       <c r="L12" t="n">
-        <v>445.2293041160066</v>
+        <v>721.3620014574024</v>
       </c>
       <c r="M12" t="n">
-        <v>637.4931750101595</v>
+        <v>913.6258723515552</v>
       </c>
       <c r="N12" t="n">
-        <v>834.8456984678776</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O12" t="n">
-        <v>1015.384701486661</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P12" t="n">
-        <v>1160.283168008898</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q12" t="n">
         <v>1533.276652930412</v>
@@ -5199,25 +5199,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J13" t="n">
-        <v>105.1020732595475</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K13" t="n">
-        <v>399.7727096942242</v>
+        <v>540.3500421434335</v>
       </c>
       <c r="L13" t="n">
-        <v>912.5617265081463</v>
+        <v>1053.139058957355</v>
       </c>
       <c r="M13" t="n">
-        <v>1471.766030621767</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N13" t="n">
-        <v>2011.374141607996</v>
+        <v>1843.181366743664</v>
       </c>
       <c r="O13" t="n">
-        <v>2520.961233055534</v>
+        <v>2352.768458191201</v>
       </c>
       <c r="P13" t="n">
-        <v>2945.408374833841</v>
+        <v>2777.215599969509</v>
       </c>
       <c r="Q13" t="n">
         <v>2998.677814292588</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1795.820234498146</v>
+        <v>2031.939689959062</v>
       </c>
       <c r="C14" t="n">
-        <v>1357.67776168157</v>
+        <v>2031.939689959062</v>
       </c>
       <c r="D14" t="n">
-        <v>921.7679768560143</v>
+        <v>1596.029905133506</v>
       </c>
       <c r="E14" t="n">
-        <v>487.9932320143095</v>
+        <v>1162.255160291802</v>
       </c>
       <c r="F14" t="n">
-        <v>60.12580242351726</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="G14" t="n">
-        <v>60.12580242351726</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="H14" t="n">
         <v>60.12580242351726</v>
@@ -5290,13 +5290,13 @@
         <v>1323.242729486271</v>
       </c>
       <c r="N14" t="n">
-        <v>1576.296055885762</v>
+        <v>1576.296055885761</v>
       </c>
       <c r="O14" t="n">
-        <v>1815.247136257287</v>
+        <v>1815.247136257286</v>
       </c>
       <c r="P14" t="n">
-        <v>2559.303941248313</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q14" t="n">
         <v>2748.049925732253</v>
@@ -5305,25 +5305,25 @@
         <v>3006.290121175863</v>
       </c>
       <c r="S14" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T14" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="U14" t="n">
-        <v>3006.290121175863</v>
+        <v>2696.505153923839</v>
       </c>
       <c r="V14" t="n">
-        <v>3006.290121175863</v>
+        <v>2696.505153923839</v>
       </c>
       <c r="W14" t="n">
-        <v>3006.290121175863</v>
+        <v>2696.505153923839</v>
       </c>
       <c r="X14" t="n">
-        <v>2630.405928683401</v>
+        <v>2696.505153923839</v>
       </c>
       <c r="Y14" t="n">
-        <v>2222.119804983054</v>
+        <v>2458.23926044397</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I15" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J15" t="n">
-        <v>157.9417523880325</v>
+        <v>434.0744497294285</v>
       </c>
       <c r="K15" t="n">
-        <v>280.472113037332</v>
+        <v>556.6048103787278</v>
       </c>
       <c r="L15" t="n">
-        <v>445.2293041160066</v>
+        <v>721.3620014574024</v>
       </c>
       <c r="M15" t="n">
-        <v>637.4931750101595</v>
+        <v>913.6258723515552</v>
       </c>
       <c r="N15" t="n">
-        <v>834.8456984678776</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O15" t="n">
-        <v>1408.690176922396</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P15" t="n">
-        <v>1553.588643444633</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q15" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R15" t="n">
         <v>1697.561900409858</v>
@@ -5439,13 +5439,13 @@
         <v>105.1020732595475</v>
       </c>
       <c r="K16" t="n">
-        <v>399.7727096942245</v>
+        <v>399.7727096942242</v>
       </c>
       <c r="L16" t="n">
-        <v>912.5617265081466</v>
+        <v>912.5617265081463</v>
       </c>
       <c r="M16" t="n">
-        <v>1471.766030621768</v>
+        <v>1471.766030621767</v>
       </c>
       <c r="N16" t="n">
         <v>2011.374141607996</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1642.26389904205</v>
+        <v>1757.628595824366</v>
       </c>
       <c r="C17" t="n">
-        <v>1204.121426225473</v>
+        <v>1757.628595824366</v>
       </c>
       <c r="D17" t="n">
-        <v>768.211641399918</v>
+        <v>1321.718810998811</v>
       </c>
       <c r="E17" t="n">
-        <v>334.4368965582132</v>
+        <v>887.9440661571057</v>
       </c>
       <c r="F17" t="n">
-        <v>334.4368965582132</v>
+        <v>460.0766365663134</v>
       </c>
       <c r="G17" t="n">
-        <v>334.4368965582132</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="H17" t="n">
         <v>60.12580242351726</v>
@@ -5515,28 +5515,28 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J17" t="n">
-        <v>670.0153478550027</v>
+        <v>234.7606604020848</v>
       </c>
       <c r="K17" t="n">
-        <v>879.6308838212445</v>
+        <v>415.1612716583816</v>
       </c>
       <c r="L17" t="n">
-        <v>1103.433794197928</v>
+        <v>1159.218076649408</v>
       </c>
       <c r="M17" t="n">
-        <v>1352.457654196216</v>
+        <v>1903.274881640434</v>
       </c>
       <c r="N17" t="n">
-        <v>1605.510980595707</v>
+        <v>2321.163831307358</v>
       </c>
       <c r="O17" t="n">
-        <v>1844.462060967232</v>
+        <v>2560.114911678883</v>
       </c>
       <c r="P17" t="n">
-        <v>2048.4012797357</v>
+        <v>2764.054130447352</v>
       </c>
       <c r="Q17" t="n">
-        <v>2748.049925732253</v>
+        <v>2917.20399048531</v>
       </c>
       <c r="R17" t="n">
         <v>3006.290121175863</v>
@@ -5545,22 +5545,22 @@
         <v>2955.611696828107</v>
       </c>
       <c r="T17" t="n">
-        <v>2955.611696828107</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U17" t="n">
-        <v>2955.611696828107</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V17" t="n">
-        <v>2955.611696828107</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="W17" t="n">
-        <v>2550.75624223914</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="X17" t="n">
-        <v>2131.613778818451</v>
+        <v>2165.914719524713</v>
       </c>
       <c r="Y17" t="n">
-        <v>2068.563469526958</v>
+        <v>1757.628595824366</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>112.3149972477986</v>
       </c>
       <c r="J18" t="n">
-        <v>184.0054255484901</v>
+        <v>434.0744497294285</v>
       </c>
       <c r="K18" t="n">
-        <v>306.5357861977895</v>
+        <v>556.6048103787278</v>
       </c>
       <c r="L18" t="n">
-        <v>471.2929772764642</v>
+        <v>721.3620014574024</v>
       </c>
       <c r="M18" t="n">
-        <v>663.5568481706169</v>
+        <v>913.6258723515552</v>
       </c>
       <c r="N18" t="n">
-        <v>860.9093716283351</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O18" t="n">
-        <v>1041.448374647118</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P18" t="n">
         <v>1436.415865350293</v>
@@ -5652,19 +5652,19 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C19" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989587</v>
       </c>
       <c r="D19" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004813</v>
       </c>
       <c r="E19" t="n">
-        <v>605.0469318512189</v>
+        <v>605.0469318512182</v>
       </c>
       <c r="F19" t="n">
-        <v>428.3398778129751</v>
+        <v>428.3398778129745</v>
       </c>
       <c r="G19" t="n">
-        <v>263.3976759832894</v>
+        <v>263.397675983289</v>
       </c>
       <c r="H19" t="n">
         <v>129.2663519946448</v>
@@ -5703,7 +5703,7 @@
         <v>2858.360327182776</v>
       </c>
       <c r="T19" t="n">
-        <v>2615.254193287674</v>
+        <v>2615.254193287673</v>
       </c>
       <c r="U19" t="n">
         <v>2336.856596530478</v>
@@ -5712,7 +5712,7 @@
         <v>2049.901088400909</v>
       </c>
       <c r="W19" t="n">
-        <v>1777.874683987201</v>
+        <v>1777.8746839872</v>
       </c>
       <c r="X19" t="n">
         <v>1532.482929320613</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2171.704426990608</v>
+        <v>1083.295087897808</v>
       </c>
       <c r="C20" t="n">
-        <v>1733.561954174032</v>
+        <v>645.152615081231</v>
       </c>
       <c r="D20" t="n">
-        <v>1297.652169348476</v>
+        <v>645.152615081231</v>
       </c>
       <c r="E20" t="n">
-        <v>863.8774245067711</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="F20" t="n">
-        <v>436.0099949159789</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="G20" t="n">
-        <v>60.12580242351726</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="H20" t="n">
         <v>60.12580242351726</v>
@@ -5752,10 +5752,10 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J20" t="n">
-        <v>234.7606604020848</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K20" t="n">
-        <v>569.9241152990527</v>
+        <v>1090.178009913395</v>
       </c>
       <c r="L20" t="n">
         <v>1313.980920290079</v>
@@ -5779,25 +5779,25 @@
         <v>3006.290121175863</v>
       </c>
       <c r="S20" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T20" t="n">
-        <v>3006.290121175863</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U20" t="n">
-        <v>3006.290121175863</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="V20" t="n">
-        <v>3006.290121175863</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="W20" t="n">
-        <v>3006.290121175863</v>
+        <v>2337.023245503751</v>
       </c>
       <c r="X20" t="n">
-        <v>3006.290121175863</v>
+        <v>1917.880782083062</v>
       </c>
       <c r="Y20" t="n">
-        <v>2598.003997475516</v>
+        <v>1509.594658382715</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I21" t="n">
-        <v>112.3149972477987</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J21" t="n">
-        <v>184.0054255484901</v>
+        <v>434.0744497294285</v>
       </c>
       <c r="K21" t="n">
-        <v>673.7775884730672</v>
+        <v>556.6048103787278</v>
       </c>
       <c r="L21" t="n">
-        <v>838.5347795517418</v>
+        <v>721.3620014574024</v>
       </c>
       <c r="M21" t="n">
-        <v>1030.798650445895</v>
+        <v>913.6258723515552</v>
       </c>
       <c r="N21" t="n">
-        <v>1228.151173903613</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O21" t="n">
-        <v>1408.690176922396</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P21" t="n">
-        <v>1553.588643444633</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q21" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R21" t="n">
         <v>1697.561900409858</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1113.244639915734</v>
+        <v>1113.244639915735</v>
       </c>
       <c r="C22" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989596</v>
       </c>
       <c r="D22" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004822</v>
       </c>
       <c r="E22" t="n">
-        <v>605.0469318512189</v>
+        <v>605.0469318512191</v>
       </c>
       <c r="F22" t="n">
-        <v>428.3398778129751</v>
+        <v>428.3398778129754</v>
       </c>
       <c r="G22" t="n">
         <v>263.3976759832894</v>
       </c>
       <c r="H22" t="n">
-        <v>129.2663519946448</v>
+        <v>129.2663519946445</v>
       </c>
       <c r="I22" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="J22" t="n">
-        <v>105.1020732595475</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K22" t="n">
-        <v>453.7703569787437</v>
+        <v>540.3500421434335</v>
       </c>
       <c r="L22" t="n">
-        <v>966.5593737926658</v>
+        <v>1053.139058957355</v>
       </c>
       <c r="M22" t="n">
-        <v>1525.763677906287</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N22" t="n">
-        <v>2065.371788892516</v>
+        <v>1843.181366743664</v>
       </c>
       <c r="O22" t="n">
-        <v>2574.958880340053</v>
+        <v>2352.768458191201</v>
       </c>
       <c r="P22" t="n">
-        <v>2945.408374833841</v>
+        <v>2777.215599969509</v>
       </c>
       <c r="Q22" t="n">
         <v>2998.677814292588</v>
@@ -5943,7 +5943,7 @@
         <v>2615.254193287674</v>
       </c>
       <c r="U22" t="n">
-        <v>2336.856596530478</v>
+        <v>2336.856596530479</v>
       </c>
       <c r="V22" t="n">
         <v>2049.901088400909</v>
@@ -5955,7 +5955,7 @@
         <v>1532.482929320613</v>
       </c>
       <c r="Y22" t="n">
-        <v>1305.063258634721</v>
+        <v>1305.063258634722</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2511.072174364379</v>
+        <v>2511.07217436438</v>
       </c>
       <c r="C23" t="n">
-        <v>2072.929701547803</v>
+        <v>2072.929701547804</v>
       </c>
       <c r="D23" t="n">
-        <v>1637.019916722247</v>
+        <v>1637.019916722248</v>
       </c>
       <c r="E23" t="n">
-        <v>1203.245171880542</v>
+        <v>1203.245171880543</v>
       </c>
       <c r="F23" t="n">
-        <v>775.3777422897501</v>
+        <v>775.3777422897505</v>
       </c>
       <c r="G23" t="n">
-        <v>375.4269081469534</v>
+        <v>375.4269081469535</v>
       </c>
       <c r="H23" t="n">
         <v>101.1158140122575</v>
@@ -5989,31 +5989,31 @@
         <v>155.3825509282453</v>
       </c>
       <c r="J23" t="n">
-        <v>275.750671990825</v>
+        <v>711.0053594437429</v>
       </c>
       <c r="K23" t="n">
-        <v>456.1512832471219</v>
+        <v>1725.756262658218</v>
       </c>
       <c r="L23" t="n">
-        <v>1707.459481648809</v>
+        <v>2324.624498801546</v>
       </c>
       <c r="M23" t="n">
-        <v>2958.767680050496</v>
+        <v>2573.648358799834</v>
       </c>
       <c r="N23" t="n">
-        <v>4210.075878452181</v>
+        <v>2826.701685199324</v>
       </c>
       <c r="O23" t="n">
-        <v>4609.615491115896</v>
+        <v>3065.65276557085</v>
       </c>
       <c r="P23" t="n">
-        <v>4813.554709884364</v>
+        <v>4097.901859172714</v>
       </c>
       <c r="Q23" t="n">
-        <v>4966.704569922323</v>
+        <v>4797.550505169267</v>
       </c>
       <c r="R23" t="n">
-        <v>5055.790700612875</v>
+        <v>5055.790700612876</v>
       </c>
       <c r="S23" t="n">
         <v>5005.11227626512</v>
@@ -6022,19 +6022,19 @@
         <v>4791.379279529731</v>
       </c>
       <c r="U23" t="n">
-        <v>4532.272736625463</v>
+        <v>4532.272736625464</v>
       </c>
       <c r="V23" t="n">
-        <v>4169.655786559289</v>
+        <v>4169.65578655929</v>
       </c>
       <c r="W23" t="n">
-        <v>3764.800331970323</v>
+        <v>3764.800331970324</v>
       </c>
       <c r="X23" t="n">
-        <v>3345.657868549634</v>
+        <v>3345.657868549635</v>
       </c>
       <c r="Y23" t="n">
-        <v>2937.371744849287</v>
+        <v>2937.371744849288</v>
       </c>
     </row>
     <row r="24">
@@ -6050,16 +6050,16 @@
         <v>492.5796302409431</v>
       </c>
       <c r="D24" t="n">
-        <v>397.4893413874963</v>
+        <v>397.4893413874964</v>
       </c>
       <c r="E24" t="n">
-        <v>303.36892671445</v>
+        <v>303.3689267144501</v>
       </c>
       <c r="F24" t="n">
         <v>219.9850883306117</v>
       </c>
       <c r="G24" t="n">
-        <v>135.3742103715399</v>
+        <v>135.37421037154</v>
       </c>
       <c r="H24" t="n">
         <v>101.1158140122575</v>
@@ -6068,28 +6068,28 @@
         <v>127.2413356760813</v>
       </c>
       <c r="J24" t="n">
-        <v>198.9317639767728</v>
+        <v>523.4900889429852</v>
       </c>
       <c r="K24" t="n">
-        <v>321.4621246260722</v>
+        <v>646.0204495922845</v>
       </c>
       <c r="L24" t="n">
-        <v>486.2193157047469</v>
+        <v>810.7776406709592</v>
       </c>
       <c r="M24" t="n">
-        <v>678.4831865988998</v>
+        <v>1003.041511565112</v>
       </c>
       <c r="N24" t="n">
-        <v>1269.141185492353</v>
+        <v>1200.39403502283</v>
       </c>
       <c r="O24" t="n">
-        <v>1449.680188511137</v>
+        <v>1380.933038041613</v>
       </c>
       <c r="P24" t="n">
-        <v>1594.578655033373</v>
+        <v>1525.83150456385</v>
       </c>
       <c r="Q24" t="n">
-        <v>1691.439442613492</v>
+        <v>1622.692292143968</v>
       </c>
       <c r="R24" t="n">
         <v>1738.551911998599</v>
@@ -6150,22 +6150,22 @@
         <v>146.0920848482878</v>
       </c>
       <c r="K25" t="n">
-        <v>494.7603685674839</v>
+        <v>272.5699464186321</v>
       </c>
       <c r="L25" t="n">
-        <v>1007.549385381406</v>
+        <v>785.3589632325543</v>
       </c>
       <c r="M25" t="n">
-        <v>1566.753689495027</v>
+        <v>1344.563267346175</v>
       </c>
       <c r="N25" t="n">
-        <v>2106.361800481256</v>
+        <v>1884.171378332404</v>
       </c>
       <c r="O25" t="n">
-        <v>2615.948891928794</v>
+        <v>2393.758469779942</v>
       </c>
       <c r="P25" t="n">
-        <v>2986.398386422581</v>
+        <v>2818.205611558249</v>
       </c>
       <c r="Q25" t="n">
         <v>3039.667825881328</v>
@@ -6205,7 +6205,7 @@
         <v>2511.072174364379</v>
       </c>
       <c r="C26" t="n">
-        <v>2072.929701547803</v>
+        <v>2072.929701547802</v>
       </c>
       <c r="D26" t="n">
         <v>1637.019916722247</v>
@@ -6214,7 +6214,7 @@
         <v>1203.245171880542</v>
       </c>
       <c r="F26" t="n">
-        <v>775.3777422897501</v>
+        <v>775.3777422897497</v>
       </c>
       <c r="G26" t="n">
         <v>375.4269081469535</v>
@@ -6223,10 +6223,10 @@
         <v>101.1158140122575</v>
       </c>
       <c r="I26" t="n">
-        <v>155.3825509282454</v>
+        <v>155.3825509282453</v>
       </c>
       <c r="J26" t="n">
-        <v>275.7506719908251</v>
+        <v>275.750671990825</v>
       </c>
       <c r="K26" t="n">
         <v>1290.5015752053</v>
@@ -6238,10 +6238,10 @@
         <v>2790.833633605275</v>
       </c>
       <c r="N26" t="n">
-        <v>3043.886960004765</v>
+        <v>4042.141832006962</v>
       </c>
       <c r="O26" t="n">
-        <v>4263.017706946597</v>
+        <v>4609.615491115897</v>
       </c>
       <c r="P26" t="n">
         <v>4813.554709884365</v>
@@ -6268,7 +6268,7 @@
         <v>3764.800331970323</v>
       </c>
       <c r="X26" t="n">
-        <v>3345.657868549634</v>
+        <v>3345.657868549633</v>
       </c>
       <c r="Y26" t="n">
         <v>2937.371744849287</v>
@@ -6302,31 +6302,31 @@
         <v>101.1158140122575</v>
       </c>
       <c r="I27" t="n">
-        <v>127.2413356760813</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J27" t="n">
-        <v>198.9317639767728</v>
+        <v>475.0644613181689</v>
       </c>
       <c r="K27" t="n">
-        <v>321.4621246260722</v>
+        <v>597.5948219674683</v>
       </c>
       <c r="L27" t="n">
-        <v>486.2193157047469</v>
+        <v>762.3520130461428</v>
       </c>
       <c r="M27" t="n">
-        <v>678.4831865988998</v>
+        <v>954.6158839402957</v>
       </c>
       <c r="N27" t="n">
-        <v>875.8357100566178</v>
+        <v>1151.968407398014</v>
       </c>
       <c r="O27" t="n">
-        <v>1056.374713075401</v>
+        <v>1332.507410416797</v>
       </c>
       <c r="P27" t="n">
-        <v>1201.273179597638</v>
+        <v>1477.405876939034</v>
       </c>
       <c r="Q27" t="n">
-        <v>1691.439442613492</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R27" t="n">
         <v>1738.551911998599</v>
@@ -6387,10 +6387,10 @@
         <v>146.0920848482878</v>
       </c>
       <c r="K28" t="n">
-        <v>440.762721282965</v>
+        <v>440.7627212829649</v>
       </c>
       <c r="L28" t="n">
-        <v>953.5517380968871</v>
+        <v>953.551738096887</v>
       </c>
       <c r="M28" t="n">
         <v>1512.756042210508</v>
@@ -6442,7 +6442,7 @@
         <v>2511.072174364379</v>
       </c>
       <c r="C29" t="n">
-        <v>2072.929701547803</v>
+        <v>2072.929701547802</v>
       </c>
       <c r="D29" t="n">
         <v>1637.019916722247</v>
@@ -6451,34 +6451,34 @@
         <v>1203.245171880542</v>
       </c>
       <c r="F29" t="n">
-        <v>775.3777422897501</v>
+        <v>775.3777422897497</v>
       </c>
       <c r="G29" t="n">
-        <v>375.4269081469538</v>
+        <v>375.4269081469535</v>
       </c>
       <c r="H29" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I29" t="n">
-        <v>155.3825509282454</v>
+        <v>155.3825509282453</v>
       </c>
       <c r="J29" t="n">
-        <v>275.7506719908251</v>
+        <v>711.0053594437429</v>
       </c>
       <c r="K29" t="n">
-        <v>1290.5015752053</v>
+        <v>1725.756262658218</v>
       </c>
       <c r="L29" t="n">
-        <v>1514.304485581983</v>
+        <v>1949.559173034901</v>
       </c>
       <c r="M29" t="n">
-        <v>1763.328345580272</v>
+        <v>2198.583033033189</v>
       </c>
       <c r="N29" t="n">
-        <v>2016.381671979762</v>
+        <v>2451.636359432679</v>
       </c>
       <c r="O29" t="n">
-        <v>3235.512418921594</v>
+        <v>3065.65276557085</v>
       </c>
       <c r="P29" t="n">
         <v>4097.901859172714</v>
@@ -6496,16 +6496,16 @@
         <v>4791.379279529731</v>
       </c>
       <c r="U29" t="n">
-        <v>4532.272736625463</v>
+        <v>4532.272736625464</v>
       </c>
       <c r="V29" t="n">
-        <v>4169.655786559289</v>
+        <v>4169.65578655929</v>
       </c>
       <c r="W29" t="n">
         <v>3764.800331970323</v>
       </c>
       <c r="X29" t="n">
-        <v>3345.657868549634</v>
+        <v>3345.657868549633</v>
       </c>
       <c r="Y29" t="n">
         <v>2937.371744849287</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3916.27488001858</v>
+        <v>599.0360914043008</v>
       </c>
       <c r="C30" t="n">
-        <v>3809.818418855222</v>
+        <v>492.5796302409431</v>
       </c>
       <c r="D30" t="n">
-        <v>3714.728130001775</v>
+        <v>397.4893413874964</v>
       </c>
       <c r="E30" t="n">
-        <v>3620.607715328729</v>
+        <v>303.3689267144501</v>
       </c>
       <c r="F30" t="n">
-        <v>3537.223876944891</v>
+        <v>219.9850883306117</v>
       </c>
       <c r="G30" t="n">
-        <v>3452.612998985819</v>
+        <v>135.37421037154</v>
       </c>
       <c r="H30" t="n">
-        <v>3418.354602626537</v>
+        <v>101.1158140122575</v>
       </c>
       <c r="I30" t="n">
-        <v>3444.48012429036</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J30" t="n">
-        <v>3516.170552591052</v>
+        <v>475.0644613181689</v>
       </c>
       <c r="K30" t="n">
-        <v>3638.700913240351</v>
+        <v>597.5948219674683</v>
       </c>
       <c r="L30" t="n">
-        <v>3803.458104319026</v>
+        <v>762.3520130461428</v>
       </c>
       <c r="M30" t="n">
-        <v>3995.721975213179</v>
+        <v>954.6158839402957</v>
       </c>
       <c r="N30" t="n">
-        <v>4193.074498670898</v>
+        <v>1151.968407398014</v>
       </c>
       <c r="O30" t="n">
-        <v>4373.613501689681</v>
+        <v>1332.507410416797</v>
       </c>
       <c r="P30" t="n">
-        <v>4518.511968211918</v>
+        <v>1477.405876939034</v>
       </c>
       <c r="Q30" t="n">
-        <v>5008.678231227769</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R30" t="n">
-        <v>5055.790700612876</v>
+        <v>1738.551911998599</v>
       </c>
       <c r="S30" t="n">
-        <v>5006.715907210569</v>
+        <v>1689.477118596291</v>
       </c>
       <c r="T30" t="n">
-        <v>4879.657880299899</v>
+        <v>1562.419091685621</v>
       </c>
       <c r="U30" t="n">
-        <v>4703.372268285048</v>
+        <v>1386.13347967077</v>
       </c>
       <c r="V30" t="n">
-        <v>4504.254750347048</v>
+        <v>1187.015961732769</v>
       </c>
       <c r="W30" t="n">
-        <v>4318.931996080242</v>
+        <v>1001.693207465963</v>
       </c>
       <c r="X30" t="n">
-        <v>4164.064560319122</v>
+        <v>846.8257717048432</v>
       </c>
       <c r="Y30" t="n">
-        <v>4037.578781098343</v>
+        <v>720.3399924840639</v>
       </c>
     </row>
     <row r="31">
@@ -6624,10 +6624,10 @@
         <v>146.0920848482878</v>
       </c>
       <c r="K31" t="n">
-        <v>440.7627212829644</v>
+        <v>440.7627212829649</v>
       </c>
       <c r="L31" t="n">
-        <v>953.5517380968865</v>
+        <v>953.551738096887</v>
       </c>
       <c r="M31" t="n">
         <v>1512.756042210508</v>
@@ -6679,7 +6679,7 @@
         <v>2511.072174364379</v>
       </c>
       <c r="C32" t="n">
-        <v>2072.929701547803</v>
+        <v>2072.929701547802</v>
       </c>
       <c r="D32" t="n">
         <v>1637.019916722247</v>
@@ -6688,37 +6688,37 @@
         <v>1203.245171880542</v>
       </c>
       <c r="F32" t="n">
-        <v>775.3777422897501</v>
+        <v>775.3777422897497</v>
       </c>
       <c r="G32" t="n">
-        <v>375.4269081469538</v>
+        <v>375.4269081469535</v>
       </c>
       <c r="H32" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I32" t="n">
-        <v>155.3825509282454</v>
+        <v>155.3825509282453</v>
       </c>
       <c r="J32" t="n">
-        <v>275.7506719908251</v>
+        <v>711.0053594437429</v>
       </c>
       <c r="K32" t="n">
-        <v>1290.5015752053</v>
+        <v>1120.641921854556</v>
       </c>
       <c r="L32" t="n">
-        <v>1514.304485581983</v>
+        <v>1344.44483223124</v>
       </c>
       <c r="M32" t="n">
-        <v>1763.328345580272</v>
+        <v>1593.468692229528</v>
       </c>
       <c r="N32" t="n">
-        <v>2393.020804587613</v>
+        <v>1846.522018629018</v>
       </c>
       <c r="O32" t="n">
-        <v>3612.151551529444</v>
+        <v>3065.65276557085</v>
       </c>
       <c r="P32" t="n">
-        <v>4644.400645131309</v>
+        <v>4097.901859172714</v>
       </c>
       <c r="Q32" t="n">
         <v>4797.550505169267</v>
@@ -6730,19 +6730,19 @@
         <v>5005.112276265121</v>
       </c>
       <c r="T32" t="n">
-        <v>4791.379279529731</v>
+        <v>4791.379279529732</v>
       </c>
       <c r="U32" t="n">
-        <v>4532.272736625463</v>
+        <v>4532.272736625464</v>
       </c>
       <c r="V32" t="n">
-        <v>4169.655786559289</v>
+        <v>4169.65578655929</v>
       </c>
       <c r="W32" t="n">
         <v>3764.800331970323</v>
       </c>
       <c r="X32" t="n">
-        <v>3345.657868549634</v>
+        <v>3345.657868549633</v>
       </c>
       <c r="Y32" t="n">
         <v>2937.371744849287</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3916.27488001858</v>
+        <v>599.0360914043008</v>
       </c>
       <c r="C33" t="n">
-        <v>3809.818418855222</v>
+        <v>492.5796302409431</v>
       </c>
       <c r="D33" t="n">
-        <v>3714.728130001775</v>
+        <v>397.4893413874964</v>
       </c>
       <c r="E33" t="n">
-        <v>3620.607715328729</v>
+        <v>303.3689267144501</v>
       </c>
       <c r="F33" t="n">
-        <v>3537.223876944891</v>
+        <v>219.9850883306117</v>
       </c>
       <c r="G33" t="n">
-        <v>3452.612998985819</v>
+        <v>135.37421037154</v>
       </c>
       <c r="H33" t="n">
-        <v>3418.354602626537</v>
+        <v>101.1158140122575</v>
       </c>
       <c r="I33" t="n">
-        <v>3444.48012429036</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J33" t="n">
-        <v>3516.170552591052</v>
+        <v>475.0644613181689</v>
       </c>
       <c r="K33" t="n">
-        <v>3638.700913240351</v>
+        <v>597.5948219674683</v>
       </c>
       <c r="L33" t="n">
-        <v>3803.458104319026</v>
+        <v>762.3520130461428</v>
       </c>
       <c r="M33" t="n">
-        <v>3995.721975213179</v>
+        <v>954.6158839402957</v>
       </c>
       <c r="N33" t="n">
-        <v>4193.074498670898</v>
+        <v>1151.968407398014</v>
       </c>
       <c r="O33" t="n">
-        <v>4373.613501689681</v>
+        <v>1332.507410416797</v>
       </c>
       <c r="P33" t="n">
-        <v>4518.511968211918</v>
+        <v>1477.405876939034</v>
       </c>
       <c r="Q33" t="n">
-        <v>5008.678231227769</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R33" t="n">
-        <v>5055.790700612876</v>
+        <v>1738.551911998599</v>
       </c>
       <c r="S33" t="n">
-        <v>5006.715907210569</v>
+        <v>1689.477118596291</v>
       </c>
       <c r="T33" t="n">
-        <v>4879.657880299899</v>
+        <v>1562.419091685621</v>
       </c>
       <c r="U33" t="n">
-        <v>4703.372268285048</v>
+        <v>1386.13347967077</v>
       </c>
       <c r="V33" t="n">
-        <v>4504.254750347048</v>
+        <v>1187.015961732769</v>
       </c>
       <c r="W33" t="n">
-        <v>4318.931996080242</v>
+        <v>1001.693207465963</v>
       </c>
       <c r="X33" t="n">
-        <v>4164.064560319122</v>
+        <v>846.8257717048432</v>
       </c>
       <c r="Y33" t="n">
-        <v>4037.578781098343</v>
+        <v>720.3399924840639</v>
       </c>
     </row>
     <row r="34">
@@ -6861,10 +6861,10 @@
         <v>146.0920848482878</v>
       </c>
       <c r="K34" t="n">
-        <v>440.7627212829644</v>
+        <v>440.7627212829649</v>
       </c>
       <c r="L34" t="n">
-        <v>953.5517380968865</v>
+        <v>953.551738096887</v>
       </c>
       <c r="M34" t="n">
         <v>1512.756042210508</v>
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2470.082162775639</v>
+        <v>887.8711654122741</v>
       </c>
       <c r="C35" t="n">
-        <v>2031.939689959062</v>
+        <v>887.8711654122741</v>
       </c>
       <c r="D35" t="n">
-        <v>1596.029905133506</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="E35" t="n">
-        <v>1162.255160291802</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="F35" t="n">
         <v>734.3877307010093</v>
@@ -6937,52 +6937,52 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J35" t="n">
-        <v>399.5962836695191</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K35" t="n">
-        <v>579.9968949258159</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L35" t="n">
-        <v>1324.053699916842</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M35" t="n">
-        <v>2068.110504907868</v>
+        <v>1818.275674479009</v>
       </c>
       <c r="N35" t="n">
-        <v>2321.163831307358</v>
+        <v>2071.329000878499</v>
       </c>
       <c r="O35" t="n">
-        <v>2560.114911678883</v>
+        <v>2310.280081250025</v>
       </c>
       <c r="P35" t="n">
-        <v>2764.054130447352</v>
+        <v>2514.219300018493</v>
       </c>
       <c r="Q35" t="n">
-        <v>2917.20399048531</v>
+        <v>2748.049925732253</v>
       </c>
       <c r="R35" t="n">
         <v>3006.290121175863</v>
       </c>
       <c r="S35" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T35" t="n">
-        <v>3006.290121175863</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U35" t="n">
-        <v>3006.290121175863</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V35" t="n">
-        <v>3006.290121175863</v>
+        <v>2120.155207122277</v>
       </c>
       <c r="W35" t="n">
-        <v>3006.290121175863</v>
+        <v>1715.29975253331</v>
       </c>
       <c r="X35" t="n">
-        <v>3006.290121175863</v>
+        <v>1296.157289112621</v>
       </c>
       <c r="Y35" t="n">
-        <v>2896.381733260546</v>
+        <v>887.8711654122741</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I36" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J36" t="n">
-        <v>157.9417523880325</v>
+        <v>434.0744497294285</v>
       </c>
       <c r="K36" t="n">
-        <v>280.472113037332</v>
+        <v>556.6048103787278</v>
       </c>
       <c r="L36" t="n">
-        <v>445.2293041160066</v>
+        <v>721.3620014574024</v>
       </c>
       <c r="M36" t="n">
-        <v>637.4931750101595</v>
+        <v>913.6258723515552</v>
       </c>
       <c r="N36" t="n">
-        <v>834.8456984678776</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O36" t="n">
-        <v>1015.384701486661</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P36" t="n">
-        <v>1160.283168008898</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q36" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R36" t="n">
         <v>1697.561900409858</v>
@@ -7074,16 +7074,16 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C37" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989587</v>
       </c>
       <c r="D37" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004813</v>
       </c>
       <c r="E37" t="n">
-        <v>605.0469318512189</v>
+        <v>605.0469318512187</v>
       </c>
       <c r="F37" t="n">
-        <v>428.3398778129751</v>
+        <v>428.3398778129749</v>
       </c>
       <c r="G37" t="n">
         <v>263.3976759832894</v>
@@ -7098,19 +7098,19 @@
         <v>105.1020732595475</v>
       </c>
       <c r="K37" t="n">
-        <v>399.7727096942245</v>
+        <v>453.7703569787436</v>
       </c>
       <c r="L37" t="n">
-        <v>912.5617265081466</v>
+        <v>966.5593737926657</v>
       </c>
       <c r="M37" t="n">
-        <v>1471.766030621768</v>
+        <v>1525.763677906287</v>
       </c>
       <c r="N37" t="n">
-        <v>2011.374141607996</v>
+        <v>2065.371788892516</v>
       </c>
       <c r="O37" t="n">
-        <v>2520.961233055534</v>
+        <v>2574.958880340053</v>
       </c>
       <c r="P37" t="n">
         <v>2945.408374833841</v>
@@ -7134,7 +7134,7 @@
         <v>2049.901088400909</v>
       </c>
       <c r="W37" t="n">
-        <v>1777.874683987201</v>
+        <v>1777.8746839872</v>
       </c>
       <c r="X37" t="n">
         <v>1532.482929320613</v>
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2003.640603889392</v>
+        <v>1172.530203517586</v>
       </c>
       <c r="C38" t="n">
-        <v>1565.498131072816</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="D38" t="n">
-        <v>1565.498131072816</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="E38" t="n">
-        <v>1162.255160291802</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="F38" t="n">
         <v>734.3877307010093</v>
@@ -7177,25 +7177,25 @@
         <v>234.7606604020848</v>
       </c>
       <c r="K38" t="n">
-        <v>415.1612716583817</v>
+        <v>415.1612716583816</v>
       </c>
       <c r="L38" t="n">
-        <v>638.9641820350653</v>
+        <v>1159.218076649408</v>
       </c>
       <c r="M38" t="n">
-        <v>887.9880420333534</v>
+        <v>1521.611718949273</v>
       </c>
       <c r="N38" t="n">
-        <v>1605.510980595707</v>
+        <v>1774.665045348764</v>
       </c>
       <c r="O38" t="n">
-        <v>1844.462060967232</v>
+        <v>2013.616125720289</v>
       </c>
       <c r="P38" t="n">
-        <v>2048.4012797357</v>
+        <v>2217.555344488757</v>
       </c>
       <c r="Q38" t="n">
-        <v>2748.049925732253</v>
+        <v>2917.20399048531</v>
       </c>
       <c r="R38" t="n">
         <v>3006.290121175863</v>
@@ -7204,22 +7204,22 @@
         <v>3006.290121175863</v>
       </c>
       <c r="T38" t="n">
-        <v>2792.557124440474</v>
+        <v>3006.290121175863</v>
       </c>
       <c r="U38" t="n">
-        <v>2792.557124440474</v>
+        <v>2747.183578271595</v>
       </c>
       <c r="V38" t="n">
-        <v>2429.9401743743</v>
+        <v>2384.566628205421</v>
       </c>
       <c r="W38" t="n">
-        <v>2429.9401743743</v>
+        <v>1999.958790638622</v>
       </c>
       <c r="X38" t="n">
-        <v>2429.9401743743</v>
+        <v>1580.816327217933</v>
       </c>
       <c r="Y38" t="n">
-        <v>2429.9401743743</v>
+        <v>1172.530203517586</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I39" t="n">
-        <v>112.3149972477987</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J39" t="n">
-        <v>184.0054255484901</v>
+        <v>434.0744497294285</v>
       </c>
       <c r="K39" t="n">
-        <v>306.5357861977895</v>
+        <v>556.6048103787278</v>
       </c>
       <c r="L39" t="n">
-        <v>471.2929772764642</v>
+        <v>721.3620014574024</v>
       </c>
       <c r="M39" t="n">
-        <v>1030.798650445895</v>
+        <v>913.6258723515552</v>
       </c>
       <c r="N39" t="n">
-        <v>1228.151173903613</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O39" t="n">
-        <v>1408.690176922396</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P39" t="n">
-        <v>1553.588643444633</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q39" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R39" t="n">
         <v>1697.561900409858</v>
@@ -7335,19 +7335,19 @@
         <v>105.1020732595475</v>
       </c>
       <c r="K40" t="n">
-        <v>453.7703569787437</v>
+        <v>399.7727096942242</v>
       </c>
       <c r="L40" t="n">
-        <v>966.5593737926658</v>
+        <v>912.5617265081463</v>
       </c>
       <c r="M40" t="n">
-        <v>1525.763677906287</v>
+        <v>1471.766030621767</v>
       </c>
       <c r="N40" t="n">
-        <v>2065.371788892516</v>
+        <v>2011.374141607996</v>
       </c>
       <c r="O40" t="n">
-        <v>2574.958880340053</v>
+        <v>2520.961233055534</v>
       </c>
       <c r="P40" t="n">
         <v>2945.408374833841</v>
@@ -7365,7 +7365,7 @@
         <v>2615.254193287674</v>
       </c>
       <c r="U40" t="n">
-        <v>2336.856596530478</v>
+        <v>2336.856596530479</v>
       </c>
       <c r="V40" t="n">
         <v>2049.901088400909</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>461.5715949273663</v>
+        <v>1688.008547630609</v>
       </c>
       <c r="C41" t="n">
-        <v>461.5715949273663</v>
+        <v>1357.67776168157</v>
       </c>
       <c r="D41" t="n">
-        <v>461.5715949273663</v>
+        <v>921.7679768560143</v>
       </c>
       <c r="E41" t="n">
-        <v>461.5715949273663</v>
+        <v>487.9932320143095</v>
       </c>
       <c r="F41" t="n">
-        <v>461.5715949273663</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="G41" t="n">
-        <v>334.4368965582132</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="H41" t="n">
         <v>60.12580242351726</v>
@@ -7411,25 +7411,25 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J41" t="n">
-        <v>670.0153478550027</v>
+        <v>234.7606604020848</v>
       </c>
       <c r="K41" t="n">
-        <v>850.4159591112995</v>
+        <v>415.1612716583816</v>
       </c>
       <c r="L41" t="n">
-        <v>1074.218869487983</v>
+        <v>638.9641820350652</v>
       </c>
       <c r="M41" t="n">
-        <v>1323.242729486271</v>
+        <v>1383.020987026091</v>
       </c>
       <c r="N41" t="n">
-        <v>1576.296055885762</v>
+        <v>2127.077792017117</v>
       </c>
       <c r="O41" t="n">
-        <v>1815.247136257287</v>
+        <v>2366.028872388642</v>
       </c>
       <c r="P41" t="n">
-        <v>2048.4012797357</v>
+        <v>2569.968091157111</v>
       </c>
       <c r="Q41" t="n">
         <v>2748.049925732253</v>
@@ -7438,25 +7438,25 @@
         <v>3006.290121175863</v>
       </c>
       <c r="S41" t="n">
-        <v>2955.611696828107</v>
+        <v>3006.290121175863</v>
       </c>
       <c r="T41" t="n">
-        <v>2741.878700092718</v>
+        <v>2792.557124440474</v>
       </c>
       <c r="U41" t="n">
-        <v>2482.77215718845</v>
+        <v>2533.450581536206</v>
       </c>
       <c r="V41" t="n">
-        <v>2120.155207122277</v>
+        <v>2533.450581536206</v>
       </c>
       <c r="W41" t="n">
-        <v>1715.29975253331</v>
+        <v>2533.450581536206</v>
       </c>
       <c r="X41" t="n">
-        <v>1296.157289112621</v>
+        <v>2114.308118115517</v>
       </c>
       <c r="Y41" t="n">
-        <v>887.8711654122741</v>
+        <v>2114.308118115517</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>112.3149972477986</v>
       </c>
       <c r="J42" t="n">
-        <v>508.5637505147025</v>
+        <v>434.0744497294285</v>
       </c>
       <c r="K42" t="n">
-        <v>631.0941111640019</v>
+        <v>556.6048103787278</v>
       </c>
       <c r="L42" t="n">
-        <v>795.8513022426765</v>
+        <v>721.3620014574024</v>
       </c>
       <c r="M42" t="n">
-        <v>988.1151731368294</v>
+        <v>913.6258723515552</v>
       </c>
       <c r="N42" t="n">
-        <v>1185.467696594547</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O42" t="n">
-        <v>1408.690176922396</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P42" t="n">
-        <v>1553.588643444633</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q42" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R42" t="n">
         <v>1697.561900409858</v>
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1571.425049916108</v>
+        <v>1608.439988343142</v>
       </c>
       <c r="C44" t="n">
-        <v>1571.425049916108</v>
+        <v>1170.297515526565</v>
       </c>
       <c r="D44" t="n">
-        <v>1135.515265090552</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="E44" t="n">
-        <v>1135.515265090552</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="F44" t="n">
         <v>734.3877307010093</v>
@@ -7648,25 +7648,25 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J44" t="n">
-        <v>259.6926349392689</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K44" t="n">
-        <v>440.0932461955658</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L44" t="n">
-        <v>663.8961565722495</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M44" t="n">
-        <v>1407.952961563275</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N44" t="n">
-        <v>2152.009766554301</v>
+        <v>1576.296055885761</v>
       </c>
       <c r="O44" t="n">
-        <v>2390.960846925826</v>
+        <v>1815.247136257286</v>
       </c>
       <c r="P44" t="n">
-        <v>2594.900065694295</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q44" t="n">
         <v>2748.049925732253</v>
@@ -7675,25 +7675,25 @@
         <v>3006.290121175863</v>
       </c>
       <c r="S44" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T44" t="n">
-        <v>3006.290121175863</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U44" t="n">
-        <v>2747.183578271595</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V44" t="n">
-        <v>2384.566628205421</v>
+        <v>2120.155207122277</v>
       </c>
       <c r="W44" t="n">
-        <v>1979.711173616455</v>
+        <v>1715.29975253331</v>
       </c>
       <c r="X44" t="n">
-        <v>1979.711173616455</v>
+        <v>1608.439988343142</v>
       </c>
       <c r="Y44" t="n">
-        <v>1571.425049916108</v>
+        <v>1608.439988343142</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I45" t="n">
-        <v>86.25132408734105</v>
+        <v>86.25132408734103</v>
       </c>
       <c r="J45" t="n">
         <v>157.9417523880325</v>
       </c>
       <c r="K45" t="n">
-        <v>280.472113037332</v>
+        <v>280.4721130373319</v>
       </c>
       <c r="L45" t="n">
-        <v>445.2293041160066</v>
+        <v>445.2293041160065</v>
       </c>
       <c r="M45" t="n">
-        <v>637.4931750101595</v>
+        <v>637.4931750101592</v>
       </c>
       <c r="N45" t="n">
-        <v>834.8456984678776</v>
+        <v>834.8456984678772</v>
       </c>
       <c r="O45" t="n">
-        <v>1015.384701486661</v>
+        <v>1015.38470148666</v>
       </c>
       <c r="P45" t="n">
-        <v>1160.283168008898</v>
+        <v>1160.283168008897</v>
       </c>
       <c r="Q45" t="n">
         <v>1650.449431024751</v>
@@ -7785,22 +7785,22 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C46" t="n">
-        <v>940.6829283989586</v>
+        <v>940.682928398959</v>
       </c>
       <c r="D46" t="n">
-        <v>774.8049356004813</v>
+        <v>774.8049356004817</v>
       </c>
       <c r="E46" t="n">
-        <v>605.0469318512186</v>
+        <v>605.0469318512189</v>
       </c>
       <c r="F46" t="n">
-        <v>428.3398778129748</v>
+        <v>428.3398778129751</v>
       </c>
       <c r="G46" t="n">
-        <v>263.3976759832891</v>
+        <v>263.3976759832894</v>
       </c>
       <c r="H46" t="n">
-        <v>129.2663519946445</v>
+        <v>129.2663519946448</v>
       </c>
       <c r="I46" t="n">
         <v>60.12580242351726</v>
@@ -7809,22 +7809,22 @@
         <v>105.1020732595475</v>
       </c>
       <c r="K46" t="n">
-        <v>399.7727096942245</v>
+        <v>231.5799348298918</v>
       </c>
       <c r="L46" t="n">
-        <v>912.5617265081466</v>
+        <v>744.3689516438141</v>
       </c>
       <c r="M46" t="n">
-        <v>1471.766030621768</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N46" t="n">
-        <v>2011.374141607996</v>
+        <v>1843.181366743664</v>
       </c>
       <c r="O46" t="n">
-        <v>2520.961233055534</v>
+        <v>2352.768458191201</v>
       </c>
       <c r="P46" t="n">
-        <v>2945.408374833841</v>
+        <v>2777.215599969509</v>
       </c>
       <c r="Q46" t="n">
         <v>2998.677814292588</v>
@@ -7836,7 +7836,7 @@
         <v>2858.360327182776</v>
       </c>
       <c r="T46" t="n">
-        <v>2615.254193287673</v>
+        <v>2615.254193287674</v>
       </c>
       <c r="U46" t="n">
         <v>2336.856596530478</v>
@@ -7845,7 +7845,7 @@
         <v>2049.901088400909</v>
       </c>
       <c r="W46" t="n">
-        <v>1777.8746839872</v>
+        <v>1777.874683987201</v>
       </c>
       <c r="X46" t="n">
         <v>1532.482929320613</v>
@@ -7981,10 +7981,10 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K2" t="n">
-        <v>41.31500304752736</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L2" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7999,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R2" t="n">
         <v>41.31500304752734</v>
@@ -8139,10 +8139,10 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -8151,10 +8151,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>41.31500304752734</v>
@@ -8224,19 +8224,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P5" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O5" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -8297,28 +8297,28 @@
         <v>41.31500304752736</v>
       </c>
       <c r="K6" t="n">
+        <v>13.31876740878121</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="L6" t="n">
+      <c r="R6" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="M6" t="n">
-        <v>13.31876740878121</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8376,19 +8376,19 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>39.64570999510201</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8467,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>39.64570999510202</v>
-      </c>
-      <c r="P8" t="n">
-        <v>41.31500304752735</v>
       </c>
       <c r="Q8" t="n">
         <v>41.31500304752734</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K9" t="n">
-        <v>41.31500304752736</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="L9" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>41.31500304752734</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8616,22 +8616,22 @@
         <v>41.31500304752736</v>
       </c>
       <c r="L10" t="n">
+        <v>41.31500304752734</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>39.64570999510201</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
       <c r="Q10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>196.0465043335768</v>
+        <v>35.95568125856812</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>500.0332777704423</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>495.9631096884198</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>545.5733194167249</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>252.5949739201398</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>278.9219165064601</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8847,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>222.9907144309254</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>152.236121078153</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -8868,7 +8868,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8944,10 +8944,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>545.5733194167251</v>
+        <v>29.51002495954117</v>
       </c>
       <c r="Q14" t="n">
-        <v>35.95568125856744</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>252.5949739201398</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>397.278258015894</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>222.9907144309257</v>
+        <v>222.9907144309254</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>29.51002495954037</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>525.5089844589319</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>500.0332777704425</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>166.5006295630646</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>252.5949739201398</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>252.5949739201392</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>156.3261046875464</v>
+        <v>242.1838896990869</v>
       </c>
       <c r="L20" t="n">
-        <v>525.5089844589318</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>252.5949739201398</v>
       </c>
       <c r="K21" t="n">
-        <v>370.9513154295734</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -9567,7 +9567,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>152.236121078153</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -9576,10 +9576,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>296.4739865513361</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1037.884129318185</v>
+        <v>378.8538644107523</v>
       </c>
       <c r="M23" t="n">
-        <v>1012.408422629696</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1008.338254547672</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>162.2106386789792</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>397.2782580158945</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>69.44156613083169</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>53.09902264877149</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
@@ -9813,10 +9813,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>296.4739865513357</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9886,13 +9886,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1008.338254547673</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>331.8409886236477</v>
       </c>
       <c r="P26" t="n">
-        <v>350.0987718881815</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>252.5949739201399</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>397.2782580158944</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>222.9907144309259</v>
+        <v>222.9907144309258</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10126,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>378.8538644107525</v>
       </c>
       <c r="P29" t="n">
-        <v>665.1012338208607</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>252.5949739201399</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>397.2782580158928</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>222.9907144309253</v>
+        <v>222.9907144309258</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>231.5514658126431</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>380.4435682907585</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10369,7 +10369,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>252.5949739201399</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>397.2782580158928</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>222.9907144309254</v>
+        <v>222.9907144309258</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>166.5006295630649</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>525.5089844589318</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>500.0332777704423</v>
+        <v>500.0332777704425</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>81.49572290485048</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>252.5949739201398</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>397.2782580158942</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>222.9907144309257</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
@@ -10761,7 +10761,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>296.4739865513357</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10828,13 +10828,13 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>525.5089844589319</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>114.5149316177551</v>
       </c>
       <c r="N38" t="n">
-        <v>469.161224406932</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>252.5949739201398</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>370.9513154295735</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,7 +10983,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>222.9907144309254</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
@@ -10998,7 +10998,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>296.4739865513361</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11068,19 +11068,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>500.0332777704425</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>495.96310968842</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>29.51002495954023</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>25.18381266382221</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11138,7 +11138,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>252.5949739201398</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>43.11462354451032</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>25.18381266382237</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11305,19 +11305,19 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>500.0332777704423</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>495.9631096884198</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>29.51002495954117</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>397.2782580158942</v>
+        <v>397.2782580158946</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>222.9907144309257</v>
+        <v>53.09902264877155</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
@@ -11475,7 +11475,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>321.8753763049322</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>273.187586704985</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U11" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U14" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -23560,10 +23560,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>42.82568821894523</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>168.3200279182722</v>
       </c>
     </row>
     <row r="15">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>101.2621754993823</v>
       </c>
       <c r="Y17" t="n">
-        <v>341.7834562647648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23974,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>121.8284360555001</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>23.82597523383117</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H20" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.5154774752252</v>
@@ -24031,10 +24031,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>279.6020866131478</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>295.3939584271799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,10 +25399,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>30.22645632008368</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>50.17164010427808</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U38" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>20.04514085194563</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>106.7335699988622</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>270.0879744159066</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25867,7 +25867,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>26.47249624923666</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>309.1598722382155</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>428172.6677275807</v>
+        <v>428172.6677275806</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>634899.0439710604</v>
+        <v>634899.0439710605</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>634899.0439710604</v>
+        <v>634899.0439710605</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>634899.0439710604</v>
+        <v>634899.0439710605</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>428172.6677275806</v>
+        <v>428172.6677275807</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>428172.6677275807</v>
+        <v>428172.6677275806</v>
       </c>
     </row>
     <row r="16">
@@ -26316,28 +26316,28 @@
         <v>402110.4899178062</v>
       </c>
       <c r="C2" t="n">
-        <v>402110.4899178063</v>
+        <v>402110.4899178062</v>
       </c>
       <c r="D2" t="n">
-        <v>402110.4899178063</v>
+        <v>402110.4899178062</v>
       </c>
       <c r="E2" t="n">
-        <v>283401.4898262699</v>
+        <v>283401.48982627</v>
       </c>
       <c r="F2" t="n">
         <v>283401.4898262699</v>
       </c>
       <c r="G2" t="n">
+        <v>283401.4898262699</v>
+      </c>
+      <c r="H2" t="n">
         <v>283401.48982627</v>
-      </c>
-      <c r="H2" t="n">
-        <v>283401.4898262699</v>
       </c>
       <c r="I2" t="n">
         <v>402110.4899178065</v>
       </c>
       <c r="J2" t="n">
-        <v>402110.4899178066</v>
+        <v>402110.4899178065</v>
       </c>
       <c r="K2" t="n">
         <v>402110.4899178065</v>
@@ -26346,16 +26346,16 @@
         <v>402110.4899178065</v>
       </c>
       <c r="M2" t="n">
-        <v>283401.4898262699</v>
+        <v>283401.48982627</v>
       </c>
       <c r="N2" t="n">
-        <v>283401.4898262699</v>
+        <v>283401.48982627</v>
       </c>
       <c r="O2" t="n">
         <v>283401.48982627</v>
       </c>
       <c r="P2" t="n">
-        <v>283401.4898262699</v>
+        <v>283401.48982627</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>498352.8259836707</v>
+        <v>498352.8259836705</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>136251.3108961174</v>
+        <v>136251.3108961175</v>
       </c>
       <c r="J3" t="n">
-        <v>10809.82265736732</v>
+        <v>10809.82265736726</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49313.08122041605</v>
+        <v>49313.08122041602</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>299855.2806251332</v>
       </c>
       <c r="D4" t="n">
-        <v>299855.2806251331</v>
+        <v>299855.2806251332</v>
       </c>
       <c r="E4" t="n">
-        <v>50871.66601070168</v>
+        <v>50871.66601070169</v>
       </c>
       <c r="F4" t="n">
-        <v>50871.66601070167</v>
+        <v>50871.66601070169</v>
       </c>
       <c r="G4" t="n">
-        <v>50871.66601070167</v>
+        <v>50871.66601070169</v>
       </c>
       <c r="H4" t="n">
-        <v>50871.66601070167</v>
+        <v>50871.66601070169</v>
       </c>
       <c r="I4" t="n">
-        <v>99561.6140127399</v>
+        <v>99561.61401273993</v>
       </c>
       <c r="J4" t="n">
-        <v>99561.61401273991</v>
+        <v>99561.61401273994</v>
       </c>
       <c r="K4" t="n">
-        <v>99561.61401273988</v>
+        <v>99561.61401273994</v>
       </c>
       <c r="L4" t="n">
-        <v>99561.61401273988</v>
+        <v>99561.61401273996</v>
       </c>
       <c r="M4" t="n">
-        <v>50871.66601070168</v>
+        <v>50871.66601070169</v>
       </c>
       <c r="N4" t="n">
-        <v>50871.66601070167</v>
+        <v>50871.66601070169</v>
       </c>
       <c r="O4" t="n">
-        <v>50871.66601070167</v>
+        <v>50871.66601070169</v>
       </c>
       <c r="P4" t="n">
-        <v>50871.66601070167</v>
+        <v>50871.66601070169</v>
       </c>
     </row>
     <row r="5">
@@ -26490,7 +26490,7 @@
         <v>53463.84704971767</v>
       </c>
       <c r="I5" t="n">
-        <v>84616.25585716026</v>
+        <v>84616.25585716027</v>
       </c>
       <c r="J5" t="n">
         <v>84616.25585716027</v>
@@ -26524,46 +26524,46 @@
         <v>52270.04934108689</v>
       </c>
       <c r="C6" t="n">
-        <v>66115.65710738349</v>
+        <v>66115.65710738338</v>
       </c>
       <c r="D6" t="n">
-        <v>66115.65710738349</v>
+        <v>66115.65710738332</v>
       </c>
       <c r="E6" t="n">
-        <v>-319286.8492178201</v>
+        <v>-319682.5458847917</v>
       </c>
       <c r="F6" t="n">
-        <v>179065.9767658505</v>
+        <v>178670.2800988788</v>
       </c>
       <c r="G6" t="n">
-        <v>179065.9767658507</v>
+        <v>178670.2800988788</v>
       </c>
       <c r="H6" t="n">
-        <v>179065.9767658506</v>
+        <v>178670.2800988788</v>
       </c>
       <c r="I6" t="n">
-        <v>81681.30915178894</v>
+        <v>81681.30915178875</v>
       </c>
       <c r="J6" t="n">
-        <v>207122.7973905391</v>
+        <v>207122.797390539</v>
       </c>
       <c r="K6" t="n">
-        <v>217932.6200479064</v>
+        <v>217932.6200479062</v>
       </c>
       <c r="L6" t="n">
-        <v>217932.6200479064</v>
+        <v>217932.6200479062</v>
       </c>
       <c r="M6" t="n">
-        <v>129752.8955454344</v>
+        <v>129357.1988784628</v>
       </c>
       <c r="N6" t="n">
-        <v>179065.9767658505</v>
+        <v>178670.2800988788</v>
       </c>
       <c r="O6" t="n">
-        <v>179065.9767658507</v>
+        <v>178670.2800988788</v>
       </c>
       <c r="P6" t="n">
-        <v>179065.9767658505</v>
+        <v>178670.2800988789</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231448</v>
       </c>
       <c r="F3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231448</v>
       </c>
       <c r="G3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231448</v>
       </c>
       <c r="H3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231448</v>
       </c>
       <c r="I3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231448</v>
       </c>
       <c r="J3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231448</v>
       </c>
       <c r="K3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231448</v>
       </c>
       <c r="L3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231448</v>
       </c>
       <c r="M3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231448</v>
       </c>
       <c r="N3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231448</v>
       </c>
       <c r="O3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231448</v>
       </c>
       <c r="P3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231448</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231448</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>512.3751448592532</v>
+        <v>512.3751448592534</v>
       </c>
       <c r="J4" t="n">
-        <v>41.31500304752763</v>
+        <v>41.3150030475274</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>197.882382387185</v>
+        <v>197.8823823871849</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>133.624980450334</v>
+        <v>159.7533718952811</v>
       </c>
       <c r="G4" t="n">
         <v>122.6203591769033</v>
@@ -27557,7 +27557,7 @@
         <v>97.18814951900188</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>46.45834668554406</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>121.2587003307212</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.77585902143818</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C6" t="n">
-        <v>64.07689350419679</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
-        <v>57.74913128065019</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E6" t="n">
         <v>93.17921052631581</v>
@@ -27745,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>62.82088317610075</v>
+        <v>21.5058801285734</v>
       </c>
       <c r="T6" t="n">
-        <v>128.8768572327044</v>
+        <v>87.56185418517705</v>
       </c>
       <c r="U6" t="n">
-        <v>174.5731815300314</v>
+        <v>138.1829268457693</v>
       </c>
       <c r="V6" t="n">
         <v>197.1263427586206</v>
@@ -27763,7 +27763,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y6" t="n">
-        <v>83.90591838104407</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="7">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.5854294842699</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>129.52109135408</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>149.0326012679123</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>207.0303972730672</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>242.7709500007465</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>227.991137322044</v>
       </c>
       <c r="X7" t="n">
-        <v>201.6228340723943</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>183.8304709315055</v>
       </c>
     </row>
     <row r="8">
@@ -27934,13 +27934,13 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>64.07689350419679</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F9" t="n">
         <v>46.15974531573791</v>
@@ -28016,22 +28016,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F10" t="n">
-        <v>133.624980450334</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>148.7487506218503</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>97.18814951900188</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>46.45834668554406</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -28067,7 +28067,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>234.3336676918984</v>
+        <v>239.2584160551636</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H11" t="n">
         <v>14.67086981786696</v>
       </c>
       <c r="I11" t="n">
-        <v>55.22750725285648</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J11" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K11" t="n">
         <v>182.2228396528251</v>
       </c>
       <c r="L11" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M11" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N11" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O11" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P11" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q11" t="n">
         <v>154.6968283211699</v>
       </c>
       <c r="R11" t="n">
-        <v>89.98599059651762</v>
+        <v>89.9859905965176</v>
       </c>
       <c r="S11" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T11" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656547</v>
       </c>
       <c r="U11" t="n">
         <v>0.1146021809280465</v>
@@ -31831,28 +31831,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969531</v>
       </c>
       <c r="H12" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260048</v>
       </c>
       <c r="I12" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J12" t="n">
-        <v>72.41457404110251</v>
+        <v>72.4145740411025</v>
       </c>
       <c r="K12" t="n">
         <v>123.7680410598984</v>
       </c>
       <c r="L12" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M12" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N12" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O12" t="n">
         <v>182.3626293119023</v>
@@ -31861,19 +31861,19 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385668</v>
       </c>
       <c r="R12" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424944</v>
       </c>
       <c r="S12" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T12" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H13" t="n">
-        <v>5.713141817771081</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I13" t="n">
         <v>19.32420565765514</v>
       </c>
       <c r="J13" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K13" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884901</v>
       </c>
       <c r="L13" t="n">
-        <v>95.53447984440513</v>
+        <v>95.5344798444051</v>
       </c>
       <c r="M13" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N13" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028689</v>
       </c>
       <c r="O13" t="n">
-        <v>90.82610325429933</v>
+        <v>90.8261032542993</v>
       </c>
       <c r="P13" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824781</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R13" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S13" t="n">
         <v>11.19845896182735</v>
       </c>
       <c r="T13" t="n">
-        <v>2.745579401178329</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H14" t="n">
         <v>14.67086981786696</v>
       </c>
       <c r="I14" t="n">
-        <v>55.22750725285648</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J14" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K14" t="n">
         <v>182.2228396528251</v>
       </c>
       <c r="L14" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M14" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N14" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O14" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P14" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q14" t="n">
         <v>154.6968283211699</v>
       </c>
       <c r="R14" t="n">
-        <v>89.98599059651762</v>
+        <v>89.9859905965176</v>
       </c>
       <c r="S14" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T14" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656547</v>
       </c>
       <c r="U14" t="n">
         <v>0.1146021809280465</v>
@@ -32068,28 +32068,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969531</v>
       </c>
       <c r="H15" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260048</v>
       </c>
       <c r="I15" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J15" t="n">
-        <v>72.41457404110251</v>
+        <v>72.4145740411025</v>
       </c>
       <c r="K15" t="n">
         <v>123.7680410598984</v>
       </c>
       <c r="L15" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M15" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N15" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O15" t="n">
         <v>182.3626293119023</v>
@@ -32098,19 +32098,19 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385668</v>
       </c>
       <c r="R15" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424944</v>
       </c>
       <c r="S15" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T15" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H16" t="n">
-        <v>5.713141817771081</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I16" t="n">
         <v>19.32420565765514</v>
       </c>
       <c r="J16" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K16" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884901</v>
       </c>
       <c r="L16" t="n">
-        <v>95.53447984440513</v>
+        <v>95.5344798444051</v>
       </c>
       <c r="M16" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N16" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028689</v>
       </c>
       <c r="O16" t="n">
-        <v>90.82610325429933</v>
+        <v>90.8261032542993</v>
       </c>
       <c r="P16" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824781</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R16" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S16" t="n">
         <v>11.19845896182735</v>
       </c>
       <c r="T16" t="n">
-        <v>2.745579401178329</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H17" t="n">
         <v>14.67086981786696</v>
       </c>
       <c r="I17" t="n">
-        <v>55.22750725285648</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J17" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K17" t="n">
         <v>182.2228396528251</v>
       </c>
       <c r="L17" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M17" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N17" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O17" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P17" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q17" t="n">
         <v>154.6968283211699</v>
       </c>
       <c r="R17" t="n">
-        <v>89.98599059651762</v>
+        <v>89.9859905965176</v>
       </c>
       <c r="S17" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T17" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656547</v>
       </c>
       <c r="U17" t="n">
         <v>0.1146021809280465</v>
@@ -32305,28 +32305,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969531</v>
       </c>
       <c r="H18" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260048</v>
       </c>
       <c r="I18" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J18" t="n">
-        <v>72.41457404110251</v>
+        <v>72.4145740411025</v>
       </c>
       <c r="K18" t="n">
         <v>123.7680410598984</v>
       </c>
       <c r="L18" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M18" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N18" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O18" t="n">
         <v>182.3626293119023</v>
@@ -32335,19 +32335,19 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385668</v>
       </c>
       <c r="R18" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424944</v>
       </c>
       <c r="S18" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T18" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H19" t="n">
-        <v>5.713141817771081</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I19" t="n">
         <v>19.32420565765514</v>
       </c>
       <c r="J19" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K19" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884901</v>
       </c>
       <c r="L19" t="n">
-        <v>95.53447984440513</v>
+        <v>95.5344798444051</v>
       </c>
       <c r="M19" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N19" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028689</v>
       </c>
       <c r="O19" t="n">
-        <v>90.82610325429933</v>
+        <v>90.8261032542993</v>
       </c>
       <c r="P19" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824781</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R19" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S19" t="n">
         <v>11.19845896182735</v>
       </c>
       <c r="T19" t="n">
-        <v>2.745579401178329</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H20" t="n">
         <v>14.67086981786696</v>
       </c>
       <c r="I20" t="n">
-        <v>55.22750725285648</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J20" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K20" t="n">
         <v>182.2228396528251</v>
       </c>
       <c r="L20" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M20" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N20" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O20" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P20" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q20" t="n">
         <v>154.6968283211699</v>
       </c>
       <c r="R20" t="n">
-        <v>89.98599059651762</v>
+        <v>89.9859905965176</v>
       </c>
       <c r="S20" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T20" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656547</v>
       </c>
       <c r="U20" t="n">
         <v>0.1146021809280465</v>
@@ -32542,28 +32542,28 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969531</v>
       </c>
       <c r="H21" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260048</v>
       </c>
       <c r="I21" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J21" t="n">
-        <v>72.41457404110251</v>
+        <v>72.4145740411025</v>
       </c>
       <c r="K21" t="n">
         <v>123.7680410598984</v>
       </c>
       <c r="L21" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M21" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N21" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O21" t="n">
         <v>182.3626293119023</v>
@@ -32572,19 +32572,19 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q21" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385668</v>
       </c>
       <c r="R21" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424944</v>
       </c>
       <c r="S21" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T21" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H22" t="n">
-        <v>5.713141817771081</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I22" t="n">
         <v>19.32420565765514</v>
       </c>
       <c r="J22" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K22" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884901</v>
       </c>
       <c r="L22" t="n">
-        <v>95.53447984440513</v>
+        <v>95.5344798444051</v>
       </c>
       <c r="M22" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N22" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028689</v>
       </c>
       <c r="O22" t="n">
-        <v>90.82610325429933</v>
+        <v>90.8261032542993</v>
       </c>
       <c r="P22" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824781</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R22" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S22" t="n">
         <v>11.19845896182735</v>
       </c>
       <c r="T22" t="n">
-        <v>2.745579401178329</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H23" t="n">
         <v>14.67086981786696</v>
       </c>
       <c r="I23" t="n">
-        <v>55.22750725285648</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J23" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K23" t="n">
         <v>182.2228396528251</v>
       </c>
       <c r="L23" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M23" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N23" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O23" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P23" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q23" t="n">
         <v>154.6968283211699</v>
       </c>
       <c r="R23" t="n">
-        <v>89.98599059651762</v>
+        <v>89.9859905965176</v>
       </c>
       <c r="S23" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T23" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656547</v>
       </c>
       <c r="U23" t="n">
         <v>0.1146021809280465</v>
@@ -32779,28 +32779,28 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969531</v>
       </c>
       <c r="H24" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260048</v>
       </c>
       <c r="I24" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J24" t="n">
-        <v>72.41457404110251</v>
+        <v>72.4145740411025</v>
       </c>
       <c r="K24" t="n">
         <v>123.7680410598984</v>
       </c>
       <c r="L24" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M24" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N24" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O24" t="n">
         <v>182.3626293119023</v>
@@ -32809,19 +32809,19 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q24" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385668</v>
       </c>
       <c r="R24" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424944</v>
       </c>
       <c r="S24" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T24" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H25" t="n">
-        <v>5.713141817771081</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I25" t="n">
         <v>19.32420565765514</v>
       </c>
       <c r="J25" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K25" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884901</v>
       </c>
       <c r="L25" t="n">
-        <v>95.53447984440513</v>
+        <v>95.5344798444051</v>
       </c>
       <c r="M25" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N25" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028689</v>
       </c>
       <c r="O25" t="n">
-        <v>90.82610325429933</v>
+        <v>90.8261032542993</v>
       </c>
       <c r="P25" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824781</v>
       </c>
       <c r="Q25" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R25" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S25" t="n">
         <v>11.19845896182735</v>
       </c>
       <c r="T25" t="n">
-        <v>2.745579401178329</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H26" t="n">
         <v>14.67086981786696</v>
       </c>
       <c r="I26" t="n">
-        <v>55.22750725285648</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J26" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K26" t="n">
         <v>182.2228396528251</v>
       </c>
       <c r="L26" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M26" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N26" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O26" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P26" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q26" t="n">
         <v>154.6968283211699</v>
       </c>
       <c r="R26" t="n">
-        <v>89.98599059651762</v>
+        <v>89.9859905965176</v>
       </c>
       <c r="S26" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T26" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656547</v>
       </c>
       <c r="U26" t="n">
         <v>0.1146021809280465</v>
@@ -33016,28 +33016,28 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969531</v>
       </c>
       <c r="H27" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260048</v>
       </c>
       <c r="I27" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J27" t="n">
-        <v>72.41457404110251</v>
+        <v>72.4145740411025</v>
       </c>
       <c r="K27" t="n">
         <v>123.7680410598984</v>
       </c>
       <c r="L27" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M27" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N27" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O27" t="n">
         <v>182.3626293119023</v>
@@ -33046,19 +33046,19 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q27" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385668</v>
       </c>
       <c r="R27" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424944</v>
       </c>
       <c r="S27" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T27" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H28" t="n">
-        <v>5.713141817771081</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I28" t="n">
         <v>19.32420565765514</v>
       </c>
       <c r="J28" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K28" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884901</v>
       </c>
       <c r="L28" t="n">
-        <v>95.53447984440513</v>
+        <v>95.5344798444051</v>
       </c>
       <c r="M28" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N28" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028689</v>
       </c>
       <c r="O28" t="n">
-        <v>90.82610325429933</v>
+        <v>90.8261032542993</v>
       </c>
       <c r="P28" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824781</v>
       </c>
       <c r="Q28" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R28" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S28" t="n">
         <v>11.19845896182735</v>
       </c>
       <c r="T28" t="n">
-        <v>2.745579401178329</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,46 +33174,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H29" t="n">
         <v>14.67086981786696</v>
       </c>
       <c r="I29" t="n">
-        <v>55.22750725285648</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J29" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K29" t="n">
         <v>182.2228396528251</v>
       </c>
       <c r="L29" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M29" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N29" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O29" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P29" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q29" t="n">
         <v>154.6968283211699</v>
       </c>
       <c r="R29" t="n">
-        <v>89.98599059651762</v>
+        <v>89.9859905965176</v>
       </c>
       <c r="S29" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T29" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656547</v>
       </c>
       <c r="U29" t="n">
         <v>0.1146021809280465</v>
@@ -33253,28 +33253,28 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969531</v>
       </c>
       <c r="H30" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260048</v>
       </c>
       <c r="I30" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J30" t="n">
-        <v>72.41457404110251</v>
+        <v>72.4145740411025</v>
       </c>
       <c r="K30" t="n">
         <v>123.7680410598984</v>
       </c>
       <c r="L30" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M30" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N30" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O30" t="n">
         <v>182.3626293119023</v>
@@ -33283,19 +33283,19 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q30" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385668</v>
       </c>
       <c r="R30" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424944</v>
       </c>
       <c r="S30" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T30" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H31" t="n">
-        <v>5.713141817771081</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I31" t="n">
         <v>19.32420565765514</v>
       </c>
       <c r="J31" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K31" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884901</v>
       </c>
       <c r="L31" t="n">
-        <v>95.53447984440513</v>
+        <v>95.5344798444051</v>
       </c>
       <c r="M31" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N31" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028689</v>
       </c>
       <c r="O31" t="n">
-        <v>90.82610325429933</v>
+        <v>90.8261032542993</v>
       </c>
       <c r="P31" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824781</v>
       </c>
       <c r="Q31" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R31" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S31" t="n">
         <v>11.19845896182735</v>
       </c>
       <c r="T31" t="n">
-        <v>2.745579401178329</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,46 +33411,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H32" t="n">
         <v>14.67086981786696</v>
       </c>
       <c r="I32" t="n">
-        <v>55.22750725285648</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J32" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K32" t="n">
         <v>182.2228396528251</v>
       </c>
       <c r="L32" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M32" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N32" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O32" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P32" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q32" t="n">
         <v>154.6968283211699</v>
       </c>
       <c r="R32" t="n">
-        <v>89.98599059651762</v>
+        <v>89.9859905965176</v>
       </c>
       <c r="S32" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T32" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656547</v>
       </c>
       <c r="U32" t="n">
         <v>0.1146021809280465</v>
@@ -33490,28 +33490,28 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969531</v>
       </c>
       <c r="H33" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260048</v>
       </c>
       <c r="I33" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J33" t="n">
-        <v>72.41457404110251</v>
+        <v>72.4145740411025</v>
       </c>
       <c r="K33" t="n">
         <v>123.7680410598984</v>
       </c>
       <c r="L33" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M33" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N33" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O33" t="n">
         <v>182.3626293119023</v>
@@ -33520,19 +33520,19 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q33" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385668</v>
       </c>
       <c r="R33" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424944</v>
       </c>
       <c r="S33" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T33" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H34" t="n">
-        <v>5.713141817771081</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I34" t="n">
         <v>19.32420565765514</v>
       </c>
       <c r="J34" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K34" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884901</v>
       </c>
       <c r="L34" t="n">
-        <v>95.53447984440513</v>
+        <v>95.5344798444051</v>
       </c>
       <c r="M34" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N34" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028689</v>
       </c>
       <c r="O34" t="n">
-        <v>90.82610325429933</v>
+        <v>90.8261032542993</v>
       </c>
       <c r="P34" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824781</v>
       </c>
       <c r="Q34" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R34" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S34" t="n">
         <v>11.19845896182735</v>
       </c>
       <c r="T34" t="n">
-        <v>2.745579401178329</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,46 +33648,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H35" t="n">
         <v>14.67086981786696</v>
       </c>
       <c r="I35" t="n">
-        <v>55.22750725285648</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J35" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K35" t="n">
         <v>182.2228396528251</v>
       </c>
       <c r="L35" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M35" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N35" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O35" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P35" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q35" t="n">
         <v>154.6968283211699</v>
       </c>
       <c r="R35" t="n">
-        <v>89.98599059651762</v>
+        <v>89.9859905965176</v>
       </c>
       <c r="S35" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T35" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656547</v>
       </c>
       <c r="U35" t="n">
         <v>0.1146021809280465</v>
@@ -33727,28 +33727,28 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969531</v>
       </c>
       <c r="H36" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260048</v>
       </c>
       <c r="I36" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J36" t="n">
-        <v>72.41457404110251</v>
+        <v>72.4145740411025</v>
       </c>
       <c r="K36" t="n">
         <v>123.7680410598984</v>
       </c>
       <c r="L36" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M36" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N36" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O36" t="n">
         <v>182.3626293119023</v>
@@ -33757,19 +33757,19 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q36" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385668</v>
       </c>
       <c r="R36" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424944</v>
       </c>
       <c r="S36" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T36" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H37" t="n">
-        <v>5.713141817771081</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I37" t="n">
         <v>19.32420565765514</v>
       </c>
       <c r="J37" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K37" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884901</v>
       </c>
       <c r="L37" t="n">
-        <v>95.53447984440513</v>
+        <v>95.5344798444051</v>
       </c>
       <c r="M37" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N37" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028689</v>
       </c>
       <c r="O37" t="n">
-        <v>90.82610325429933</v>
+        <v>90.8261032542993</v>
       </c>
       <c r="P37" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824781</v>
       </c>
       <c r="Q37" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R37" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S37" t="n">
         <v>11.19845896182735</v>
       </c>
       <c r="T37" t="n">
-        <v>2.745579401178329</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H38" t="n">
         <v>14.67086981786696</v>
       </c>
       <c r="I38" t="n">
-        <v>55.22750725285648</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J38" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K38" t="n">
         <v>182.2228396528251</v>
       </c>
       <c r="L38" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M38" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N38" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O38" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P38" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q38" t="n">
         <v>154.6968283211699</v>
       </c>
       <c r="R38" t="n">
-        <v>89.98599059651762</v>
+        <v>89.9859905965176</v>
       </c>
       <c r="S38" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T38" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656547</v>
       </c>
       <c r="U38" t="n">
         <v>0.1146021809280465</v>
@@ -33964,28 +33964,28 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969531</v>
       </c>
       <c r="H39" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260048</v>
       </c>
       <c r="I39" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J39" t="n">
-        <v>72.41457404110251</v>
+        <v>72.4145740411025</v>
       </c>
       <c r="K39" t="n">
         <v>123.7680410598984</v>
       </c>
       <c r="L39" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M39" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N39" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O39" t="n">
         <v>182.3626293119023</v>
@@ -33994,19 +33994,19 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q39" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385668</v>
       </c>
       <c r="R39" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424944</v>
       </c>
       <c r="S39" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T39" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H40" t="n">
-        <v>5.713141817771081</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I40" t="n">
         <v>19.32420565765514</v>
       </c>
       <c r="J40" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K40" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884901</v>
       </c>
       <c r="L40" t="n">
-        <v>95.53447984440513</v>
+        <v>95.5344798444051</v>
       </c>
       <c r="M40" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N40" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028689</v>
       </c>
       <c r="O40" t="n">
-        <v>90.82610325429933</v>
+        <v>90.8261032542993</v>
       </c>
       <c r="P40" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824781</v>
       </c>
       <c r="Q40" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R40" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S40" t="n">
         <v>11.19845896182735</v>
       </c>
       <c r="T40" t="n">
-        <v>2.745579401178329</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H41" t="n">
         <v>14.67086981786696</v>
       </c>
       <c r="I41" t="n">
-        <v>55.22750725285648</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J41" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K41" t="n">
         <v>182.2228396528251</v>
       </c>
       <c r="L41" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M41" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N41" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O41" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P41" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q41" t="n">
         <v>154.6968283211699</v>
       </c>
       <c r="R41" t="n">
-        <v>89.98599059651762</v>
+        <v>89.9859905965176</v>
       </c>
       <c r="S41" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T41" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656547</v>
       </c>
       <c r="U41" t="n">
         <v>0.1146021809280465</v>
@@ -34201,28 +34201,28 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969531</v>
       </c>
       <c r="H42" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260048</v>
       </c>
       <c r="I42" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J42" t="n">
-        <v>72.41457404110251</v>
+        <v>72.4145740411025</v>
       </c>
       <c r="K42" t="n">
         <v>123.7680410598984</v>
       </c>
       <c r="L42" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M42" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N42" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O42" t="n">
         <v>182.3626293119023</v>
@@ -34231,19 +34231,19 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q42" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385668</v>
       </c>
       <c r="R42" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424944</v>
       </c>
       <c r="S42" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T42" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H43" t="n">
-        <v>5.713141817771081</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I43" t="n">
         <v>19.32420565765514</v>
       </c>
       <c r="J43" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K43" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884901</v>
       </c>
       <c r="L43" t="n">
-        <v>95.53447984440513</v>
+        <v>95.5344798444051</v>
       </c>
       <c r="M43" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N43" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028689</v>
       </c>
       <c r="O43" t="n">
-        <v>90.82610325429933</v>
+        <v>90.8261032542993</v>
       </c>
       <c r="P43" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824781</v>
       </c>
       <c r="Q43" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R43" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S43" t="n">
         <v>11.19845896182735</v>
       </c>
       <c r="T43" t="n">
-        <v>2.745579401178329</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.432527261600582</v>
+        <v>1.432527261600581</v>
       </c>
       <c r="H44" t="n">
         <v>14.67086981786696</v>
       </c>
       <c r="I44" t="n">
-        <v>55.22750725285648</v>
+        <v>55.22750725285646</v>
       </c>
       <c r="J44" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K44" t="n">
         <v>182.2228396528251</v>
       </c>
       <c r="L44" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M44" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235232</v>
       </c>
       <c r="N44" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O44" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P44" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772407</v>
       </c>
       <c r="Q44" t="n">
         <v>154.6968283211699</v>
       </c>
       <c r="R44" t="n">
-        <v>89.98599059651762</v>
+        <v>89.9859905965176</v>
       </c>
       <c r="S44" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T44" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656547</v>
       </c>
       <c r="U44" t="n">
         <v>0.1146021809280465</v>
@@ -34438,28 +34438,28 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969531</v>
       </c>
       <c r="H45" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260048</v>
       </c>
       <c r="I45" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J45" t="n">
-        <v>72.41457404110251</v>
+        <v>72.4145740411025</v>
       </c>
       <c r="K45" t="n">
         <v>123.7680410598984</v>
       </c>
       <c r="L45" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M45" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N45" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O45" t="n">
         <v>182.3626293119023</v>
@@ -34468,19 +34468,19 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q45" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385668</v>
       </c>
       <c r="R45" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424944</v>
       </c>
       <c r="S45" t="n">
-        <v>14.23683770781621</v>
+        <v>14.2368377078162</v>
       </c>
       <c r="T45" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141226</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H46" t="n">
-        <v>5.713141817771081</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I46" t="n">
         <v>19.32420565765514</v>
       </c>
       <c r="J46" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K46" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884901</v>
       </c>
       <c r="L46" t="n">
-        <v>95.53447984440513</v>
+        <v>95.5344798444051</v>
       </c>
       <c r="M46" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N46" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028689</v>
       </c>
       <c r="O46" t="n">
-        <v>90.82610325429933</v>
+        <v>90.8261032542993</v>
       </c>
       <c r="P46" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824781</v>
       </c>
       <c r="Q46" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R46" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S46" t="n">
         <v>11.19845896182735</v>
       </c>
       <c r="T46" t="n">
-        <v>2.745579401178329</v>
+        <v>2.745579401178328</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,10 +34701,10 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K2" t="n">
-        <v>41.31500304752736</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L2" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34719,7 +34719,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R2" t="n">
         <v>41.31500304752734</v>
@@ -34859,10 +34859,10 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -34871,10 +34871,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>41.31500304752734</v>
@@ -34944,19 +34944,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P5" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O5" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,28 +35017,28 @@
         <v>41.31500304752736</v>
       </c>
       <c r="K6" t="n">
+        <v>13.31876740878121</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="L6" t="n">
+      <c r="R6" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="M6" t="n">
-        <v>13.31876740878121</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35096,19 +35096,19 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>39.64570999510201</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>39.64570999510202</v>
-      </c>
-      <c r="P8" t="n">
-        <v>41.31500304752735</v>
       </c>
       <c r="Q8" t="n">
         <v>41.31500304752734</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K9" t="n">
-        <v>41.31500304752736</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="L9" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35275,7 +35275,7 @@
         <v>41.31500304752734</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35336,22 +35336,22 @@
         <v>41.31500304752736</v>
       </c>
       <c r="L10" t="n">
+        <v>41.31500304752734</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>39.64570999510201</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
       <c r="Q10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J11" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K11" t="n">
-        <v>378.269343986402</v>
+        <v>218.1785209113932</v>
       </c>
       <c r="L11" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M11" t="n">
-        <v>751.5725302939657</v>
+        <v>251.5392525235231</v>
       </c>
       <c r="N11" t="n">
-        <v>751.5725302939657</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O11" t="n">
         <v>241.3647276480051</v>
       </c>
       <c r="P11" t="n">
-        <v>205.9992108772408</v>
+        <v>751.5725302939657</v>
       </c>
       <c r="Q11" t="n">
         <v>154.69682832117</v>
       </c>
       <c r="R11" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836502</v>
       </c>
       <c r="J12" t="n">
-        <v>72.41457404110251</v>
+        <v>325.0095479612423</v>
       </c>
       <c r="K12" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L12" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299743</v>
       </c>
       <c r="M12" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N12" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O12" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P12" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q12" t="n">
-        <v>376.7610958803168</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R12" t="n">
         <v>165.9446944236836</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.43057660205078</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K13" t="n">
-        <v>297.6471075097744</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L13" t="n">
-        <v>517.9687038524467</v>
+        <v>517.9687038524465</v>
       </c>
       <c r="M13" t="n">
-        <v>564.8528324380011</v>
+        <v>252.9638351515955</v>
       </c>
       <c r="N13" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O13" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P13" t="n">
         <v>428.7344866447547</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R13" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994783</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J14" t="n">
         <v>561.2351601166642</v>
@@ -35655,19 +35655,19 @@
         <v>226.063545835034</v>
       </c>
       <c r="M14" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235231</v>
       </c>
       <c r="N14" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O14" t="n">
         <v>241.3647276480051</v>
       </c>
       <c r="P14" t="n">
-        <v>751.5725302939659</v>
+        <v>235.509235836782</v>
       </c>
       <c r="Q14" t="n">
-        <v>190.6525095797374</v>
+        <v>706.7158040369218</v>
       </c>
       <c r="R14" t="n">
         <v>260.8486822662721</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836502</v>
       </c>
       <c r="J15" t="n">
-        <v>72.41457404110251</v>
+        <v>325.0095479612423</v>
       </c>
       <c r="K15" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L15" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299743</v>
       </c>
       <c r="M15" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N15" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O15" t="n">
-        <v>579.6408873277963</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P15" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q15" t="n">
         <v>97.83917937385672</v>
       </c>
       <c r="R15" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K16" t="n">
-        <v>297.6471075097747</v>
+        <v>297.6471075097744</v>
       </c>
       <c r="L16" t="n">
         <v>517.9687038524467</v>
       </c>
       <c r="M16" t="n">
-        <v>564.852832438001</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N16" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O16" t="n">
         <v>514.7344358055936</v>
@@ -35828,7 +35828,7 @@
         <v>53.80751460479496</v>
       </c>
       <c r="R16" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994783</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,22 +35880,22 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J17" t="n">
-        <v>561.2351601166642</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K17" t="n">
-        <v>211.7328646123655</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L17" t="n">
-        <v>226.063545835034</v>
+        <v>751.5725302939658</v>
       </c>
       <c r="M17" t="n">
-        <v>251.5392525235234</v>
+        <v>751.5725302939657</v>
       </c>
       <c r="N17" t="n">
-        <v>255.6094206055459</v>
+        <v>422.1100501686108</v>
       </c>
       <c r="O17" t="n">
         <v>241.3647276480051</v>
@@ -35904,10 +35904,10 @@
         <v>205.9992108772408</v>
       </c>
       <c r="Q17" t="n">
-        <v>706.7158040369222</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R17" t="n">
-        <v>260.8486822662721</v>
+        <v>89.98599059651769</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>52.71635840836503</v>
+        <v>52.71635840836502</v>
       </c>
       <c r="J18" t="n">
-        <v>72.41457404110251</v>
+        <v>325.0095479612423</v>
       </c>
       <c r="K18" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L18" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299743</v>
       </c>
       <c r="M18" t="n">
-        <v>194.2059301961139</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N18" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O18" t="n">
-        <v>182.3626293119024</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P18" t="n">
-        <v>398.9570613163382</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q18" t="n">
         <v>97.83917937385672</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K19" t="n">
         <v>297.6471075097744</v>
@@ -36053,10 +36053,10 @@
         <v>564.8528324380011</v>
       </c>
       <c r="N19" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O19" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P19" t="n">
         <v>428.7344866447547</v>
@@ -36065,7 +36065,7 @@
         <v>53.80751460479496</v>
       </c>
       <c r="R19" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994783</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,22 +36117,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J20" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K20" t="n">
-        <v>338.5489443403716</v>
+        <v>424.406729351912</v>
       </c>
       <c r="L20" t="n">
-        <v>751.5725302939657</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M20" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235231</v>
       </c>
       <c r="N20" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O20" t="n">
         <v>751.5725302939657</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>52.71635840836505</v>
+        <v>52.71635840836502</v>
       </c>
       <c r="J21" t="n">
-        <v>72.4145740411025</v>
+        <v>325.0095479612423</v>
       </c>
       <c r="K21" t="n">
-        <v>494.7193564894718</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L21" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299743</v>
       </c>
       <c r="M21" t="n">
         <v>194.205930196114</v>
@@ -36217,13 +36217,13 @@
         <v>182.3626293119023</v>
       </c>
       <c r="P21" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q21" t="n">
         <v>97.83917937385672</v>
       </c>
       <c r="R21" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.43057660205078</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K22" t="n">
         <v>352.1901855749456</v>
       </c>
       <c r="L22" t="n">
-        <v>517.9687038524467</v>
+        <v>517.9687038524465</v>
       </c>
       <c r="M22" t="n">
-        <v>564.8528324380012</v>
+        <v>252.9638351515955</v>
       </c>
       <c r="N22" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O22" t="n">
-        <v>514.7344358055934</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P22" t="n">
-        <v>374.1914085795838</v>
+        <v>428.7344866447547</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R22" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994783</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J23" t="n">
-        <v>121.5839606692724</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K23" t="n">
-        <v>182.2228396528251</v>
+        <v>1025.000912337853</v>
       </c>
       <c r="L23" t="n">
-        <v>1263.947675153219</v>
+        <v>604.9174102457862</v>
       </c>
       <c r="M23" t="n">
-        <v>1263.947675153219</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N23" t="n">
-        <v>1263.947675153218</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O23" t="n">
-        <v>403.5753663269843</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P23" t="n">
-        <v>205.9992108772412</v>
+        <v>1042.675852123096</v>
       </c>
       <c r="Q23" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R23" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662717</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.38941582204424</v>
+        <v>26.38941582204421</v>
       </c>
       <c r="J24" t="n">
-        <v>72.4145740411025</v>
+        <v>400.2512659261655</v>
       </c>
       <c r="K24" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L24" t="n">
         <v>166.4214051299745</v>
@@ -36448,7 +36448,7 @@
         <v>194.205930196114</v>
       </c>
       <c r="N24" t="n">
-        <v>596.6242413065188</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O24" t="n">
         <v>182.3626293119023</v>
@@ -36460,7 +36460,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R24" t="n">
-        <v>47.58835291424953</v>
+        <v>117.0299190450812</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.43057660205079</v>
+        <v>45.43057660205076</v>
       </c>
       <c r="K25" t="n">
-        <v>352.1901855749456</v>
+        <v>127.7554157276205</v>
       </c>
       <c r="L25" t="n">
         <v>517.9687038524467</v>
@@ -36530,16 +36530,16 @@
         <v>545.0586979658876</v>
       </c>
       <c r="O25" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P25" t="n">
-        <v>374.1914085795834</v>
+        <v>428.7344866447547</v>
       </c>
       <c r="Q25" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R25" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994783</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,10 +36591,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J26" t="n">
-        <v>121.5839606692725</v>
+        <v>121.5839606692724</v>
       </c>
       <c r="K26" t="n">
         <v>1025.000912337853</v>
@@ -36606,13 +36606,13 @@
         <v>251.5392525235234</v>
       </c>
       <c r="N26" t="n">
-        <v>255.6094206055459</v>
+        <v>1263.947675153219</v>
       </c>
       <c r="O26" t="n">
-        <v>1231.445198931143</v>
+        <v>573.2057162716528</v>
       </c>
       <c r="P26" t="n">
-        <v>556.0979827654228</v>
+        <v>205.9992108772403</v>
       </c>
       <c r="Q26" t="n">
         <v>154.69682832117</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.38941582204424</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J27" t="n">
-        <v>72.41457404110253</v>
+        <v>325.0095479612424</v>
       </c>
       <c r="K27" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L27" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299743</v>
       </c>
       <c r="M27" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N27" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O27" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P27" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q27" t="n">
-        <v>495.1174373897511</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R27" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.43057660205079</v>
+        <v>45.43057660205076</v>
       </c>
       <c r="K28" t="n">
-        <v>297.647107509775</v>
+        <v>297.6471075097749</v>
       </c>
       <c r="L28" t="n">
         <v>517.9687038524467</v>
       </c>
       <c r="M28" t="n">
-        <v>564.852832438001</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N28" t="n">
         <v>545.0586979658874</v>
@@ -36776,7 +36776,7 @@
         <v>53.80751460479496</v>
       </c>
       <c r="R28" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994783</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,10 +36828,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J29" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K29" t="n">
         <v>1025.000912337853</v>
@@ -36840,16 +36840,16 @@
         <v>226.0635458350339</v>
       </c>
       <c r="M29" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235231</v>
       </c>
       <c r="N29" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O29" t="n">
-        <v>1231.445198931143</v>
+        <v>620.2185920587576</v>
       </c>
       <c r="P29" t="n">
-        <v>871.1004446981015</v>
+        <v>1042.675852123096</v>
       </c>
       <c r="Q29" t="n">
         <v>706.7158040369222</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.38941582204416</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J30" t="n">
-        <v>72.4145740411027</v>
+        <v>325.0095479612424</v>
       </c>
       <c r="K30" t="n">
-        <v>123.7680410598982</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L30" t="n">
-        <v>166.4214051299746</v>
+        <v>166.4214051299743</v>
       </c>
       <c r="M30" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N30" t="n">
-        <v>199.3459832906246</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O30" t="n">
         <v>182.3626293119023</v>
       </c>
       <c r="P30" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q30" t="n">
-        <v>495.1174373897493</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R30" t="n">
-        <v>47.5883529142493</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.43057660205079</v>
+        <v>45.43057660205076</v>
       </c>
       <c r="K31" t="n">
-        <v>297.6471075097744</v>
+        <v>297.6471075097749</v>
       </c>
       <c r="L31" t="n">
         <v>517.9687038524467</v>
@@ -37004,7 +37004,7 @@
         <v>545.0586979658874</v>
       </c>
       <c r="O31" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055934</v>
       </c>
       <c r="P31" t="n">
         <v>428.7344866447547</v>
@@ -37013,7 +37013,7 @@
         <v>53.80751460479496</v>
       </c>
       <c r="R31" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994783</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,22 +37065,22 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J32" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K32" t="n">
-        <v>1025.000912337853</v>
+        <v>413.7743054654682</v>
       </c>
       <c r="L32" t="n">
         <v>226.0635458350339</v>
       </c>
       <c r="M32" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235231</v>
       </c>
       <c r="N32" t="n">
-        <v>636.0529888963044</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O32" t="n">
         <v>1231.445198931143</v>
@@ -37089,7 +37089,7 @@
         <v>1042.675852123096</v>
       </c>
       <c r="Q32" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R32" t="n">
         <v>260.8486822662717</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.38941582204416</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J33" t="n">
-        <v>72.4145740411027</v>
+        <v>325.0095479612424</v>
       </c>
       <c r="K33" t="n">
-        <v>123.7680410598982</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L33" t="n">
-        <v>166.4214051299746</v>
+        <v>166.4214051299743</v>
       </c>
       <c r="M33" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N33" t="n">
-        <v>199.3459832906246</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O33" t="n">
         <v>182.3626293119023</v>
       </c>
       <c r="P33" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q33" t="n">
-        <v>495.1174373897493</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R33" t="n">
-        <v>47.5883529142493</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.43057660205079</v>
+        <v>45.43057660205076</v>
       </c>
       <c r="K34" t="n">
-        <v>297.6471075097744</v>
+        <v>297.6471075097749</v>
       </c>
       <c r="L34" t="n">
         <v>517.9687038524467</v>
@@ -37241,7 +37241,7 @@
         <v>545.0586979658874</v>
       </c>
       <c r="O34" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055934</v>
       </c>
       <c r="P34" t="n">
         <v>428.7344866447547</v>
@@ -37250,7 +37250,7 @@
         <v>53.80751460479496</v>
       </c>
       <c r="R34" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994783</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,16 +37302,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J35" t="n">
-        <v>288.0845902323374</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K35" t="n">
-        <v>182.2228396528251</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L35" t="n">
-        <v>751.5725302939657</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M35" t="n">
         <v>751.5725302939657</v>
@@ -37326,10 +37326,10 @@
         <v>205.9992108772408</v>
       </c>
       <c r="Q35" t="n">
-        <v>154.69682832117</v>
+        <v>236.1925512260204</v>
       </c>
       <c r="R35" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836502</v>
       </c>
       <c r="J36" t="n">
-        <v>72.41457404110251</v>
+        <v>325.0095479612423</v>
       </c>
       <c r="K36" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L36" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299743</v>
       </c>
       <c r="M36" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N36" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O36" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P36" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q36" t="n">
-        <v>495.1174373897509</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R36" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K37" t="n">
-        <v>297.6471075097747</v>
+        <v>352.1901855749455</v>
       </c>
       <c r="L37" t="n">
         <v>517.9687038524467</v>
       </c>
       <c r="M37" t="n">
-        <v>564.852832438001</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N37" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O37" t="n">
-        <v>514.7344358055936</v>
+        <v>514.7344358055939</v>
       </c>
       <c r="P37" t="n">
-        <v>428.7344866447547</v>
+        <v>374.1914085795834</v>
       </c>
       <c r="Q37" t="n">
         <v>53.80751460479496</v>
       </c>
       <c r="R37" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994783</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J38" t="n">
         <v>121.5839606692725</v>
@@ -37548,13 +37548,13 @@
         <v>182.2228396528251</v>
       </c>
       <c r="L38" t="n">
-        <v>226.0635458350339</v>
+        <v>751.5725302939658</v>
       </c>
       <c r="M38" t="n">
-        <v>251.5392525235234</v>
+        <v>366.0541841412783</v>
       </c>
       <c r="N38" t="n">
-        <v>724.7706450124781</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O38" t="n">
         <v>241.3647276480051</v>
@@ -37566,7 +37566,7 @@
         <v>706.7158040369222</v>
       </c>
       <c r="R38" t="n">
-        <v>260.8486822662721</v>
+        <v>89.98599059651769</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>52.71635840836505</v>
+        <v>52.71635840836502</v>
       </c>
       <c r="J39" t="n">
-        <v>72.4145740411025</v>
+        <v>325.0095479612423</v>
       </c>
       <c r="K39" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L39" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299743</v>
       </c>
       <c r="M39" t="n">
-        <v>565.1572456256874</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N39" t="n">
         <v>199.3459832906242</v>
@@ -37639,13 +37639,13 @@
         <v>182.3626293119023</v>
       </c>
       <c r="P39" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q39" t="n">
         <v>97.83917937385672</v>
       </c>
       <c r="R39" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K40" t="n">
-        <v>352.1901855749456</v>
+        <v>297.6471075097744</v>
       </c>
       <c r="L40" t="n">
         <v>517.9687038524467</v>
       </c>
       <c r="M40" t="n">
-        <v>564.8528324380012</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N40" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O40" t="n">
-        <v>514.7344358055934</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P40" t="n">
-        <v>374.1914085795838</v>
+        <v>428.7344866447547</v>
       </c>
       <c r="Q40" t="n">
         <v>53.80751460479496</v>
       </c>
       <c r="R40" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994783</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J41" t="n">
-        <v>561.2351601166642</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K41" t="n">
-        <v>182.222839652825</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L41" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M41" t="n">
-        <v>251.5392525235234</v>
+        <v>751.5725302939658</v>
       </c>
       <c r="N41" t="n">
-        <v>255.6094206055461</v>
+        <v>751.5725302939659</v>
       </c>
       <c r="O41" t="n">
         <v>241.3647276480051</v>
       </c>
       <c r="P41" t="n">
-        <v>235.509235836781</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q41" t="n">
-        <v>706.7158040369222</v>
+        <v>179.8806409849922</v>
       </c>
       <c r="R41" t="n">
         <v>260.8486822662721</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>52.71635840836503</v>
+        <v>52.71635840836502</v>
       </c>
       <c r="J42" t="n">
-        <v>400.2512659261656</v>
+        <v>325.0095479612423</v>
       </c>
       <c r="K42" t="n">
         <v>123.7680410598983</v>
       </c>
       <c r="L42" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299743</v>
       </c>
       <c r="M42" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N42" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O42" t="n">
-        <v>225.4772528564126</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P42" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q42" t="n">
         <v>97.83917937385672</v>
       </c>
       <c r="R42" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K43" t="n">
         <v>297.6471075097744</v>
@@ -37949,10 +37949,10 @@
         <v>564.8528324380011</v>
       </c>
       <c r="N43" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O43" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P43" t="n">
         <v>428.7344866447547</v>
@@ -37961,7 +37961,7 @@
         <v>53.80751460479496</v>
       </c>
       <c r="R43" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994783</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J44" t="n">
-        <v>146.7677733330949</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K44" t="n">
-        <v>182.2228396528251</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L44" t="n">
         <v>226.063545835034</v>
       </c>
       <c r="M44" t="n">
-        <v>751.5725302939657</v>
+        <v>251.5392525235231</v>
       </c>
       <c r="N44" t="n">
-        <v>751.5725302939657</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O44" t="n">
         <v>241.3647276480051</v>
       </c>
       <c r="P44" t="n">
-        <v>205.9992108772408</v>
+        <v>235.509235836782</v>
       </c>
       <c r="Q44" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369218</v>
       </c>
       <c r="R44" t="n">
         <v>260.8486822662721</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J45" t="n">
-        <v>72.41457404110251</v>
+        <v>72.4145740411025</v>
       </c>
       <c r="K45" t="n">
         <v>123.7680410598984</v>
       </c>
       <c r="L45" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M45" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N45" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O45" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P45" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q45" t="n">
-        <v>495.1174373897509</v>
+        <v>495.1174373897513</v>
       </c>
       <c r="R45" t="n">
         <v>47.58835291424953</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.43057660205078</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K46" t="n">
-        <v>297.6471075097747</v>
+        <v>127.7554157276205</v>
       </c>
       <c r="L46" t="n">
         <v>517.9687038524467</v>
       </c>
       <c r="M46" t="n">
-        <v>564.852832438001</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N46" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O46" t="n">
         <v>514.7344358055936</v>
@@ -38195,10 +38195,10 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q46" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R46" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994783</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
